--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_12_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-985698.7769530347</v>
+        <v>-987599.4296062093</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3260304.5648773</v>
+        <v>3260304.564877299</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1.52936184871842</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>6.84140014930867</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1221,13 +1221,13 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>12.73205987707308</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="I9" t="n">
         <v>15.30273751513505</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>12.73205987707308</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="C10" t="n">
+      <c r="F10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H10" t="n">
         <v>10.75721046822444</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1345,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>366.0487960435703</v>
       </c>
       <c r="C11" t="n">
-        <v>348.5878461510973</v>
+        <v>348.5878461510972</v>
       </c>
       <c r="D11" t="n">
         <v>337.9979960007727</v>
       </c>
       <c r="E11" t="n">
-        <v>365.2453244523516</v>
+        <v>365.2453244523515</v>
       </c>
       <c r="F11" t="n">
-        <v>390.1910001218012</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>395.9982052189663</v>
+        <v>30.20616529456314</v>
       </c>
       <c r="H11" t="n">
         <v>295.962938572624</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>92.80308386403765</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.6434713310933</v>
+        <v>132.6434713310932</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>194.9440010188992</v>
       </c>
       <c r="U11" t="n">
-        <v>234.4510483538256</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>311.0672128502247</v>
+        <v>311.0672128502246</v>
       </c>
       <c r="W11" t="n">
-        <v>332.5559230975028</v>
+        <v>332.5559230975027</v>
       </c>
       <c r="X11" t="n">
-        <v>16.40784758503571</v>
+        <v>353.0460550585587</v>
       </c>
       <c r="Y11" t="n">
-        <v>369.5528930361434</v>
+        <v>369.5528930361432</v>
       </c>
     </row>
     <row r="12">
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>163.146934562027</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>131.9304273983021</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.7489170266589</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>150.1309221946284</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>186.854305783473</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>269.5698921978214</v>
+        <v>269.5698921978213</v>
       </c>
       <c r="V13" t="n">
-        <v>235.4525977039178</v>
+        <v>235.4525977039177</v>
       </c>
       <c r="W13" t="n">
-        <v>42.6708883588534</v>
+        <v>177.926681810633</v>
       </c>
       <c r="X13" t="n">
-        <v>209.0246097691269</v>
+        <v>209.0246097691268</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,25 +1607,25 @@
         <v>366.0487960435703</v>
       </c>
       <c r="C14" t="n">
-        <v>348.5878461510973</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>337.9979960007727</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>365.2453244523515</v>
       </c>
       <c r="F14" t="n">
         <v>390.1910001218012</v>
       </c>
       <c r="G14" t="n">
-        <v>395.9982052189663</v>
+        <v>395.9982052189662</v>
       </c>
       <c r="H14" t="n">
         <v>295.962938572624</v>
       </c>
       <c r="I14" t="n">
-        <v>92.80308386403773</v>
+        <v>92.80308386403765</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.95160143845735</v>
+        <v>132.6434713310932</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>194.9440010188992</v>
       </c>
       <c r="U14" t="n">
-        <v>234.4510483538256</v>
+        <v>234.4510483538255</v>
       </c>
       <c r="V14" t="n">
-        <v>311.0672128502247</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>332.5559230975028</v>
+        <v>332.5559230975027</v>
       </c>
       <c r="X14" t="n">
-        <v>353.0460550585588</v>
+        <v>22.26702565985119</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>369.5528930361433</v>
       </c>
     </row>
     <row r="15">
@@ -1768,22 +1768,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>131.930427398302</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>129.7489170266589</v>
       </c>
       <c r="F16" t="n">
-        <v>41.73543975060467</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>150.1309221946284</v>
       </c>
       <c r="H16" t="n">
-        <v>135.0952060697672</v>
+        <v>135.0952060697671</v>
       </c>
       <c r="I16" t="n">
-        <v>103.4296276047334</v>
+        <v>103.4296276047333</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>107.7755539733619</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,13 +1819,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>269.5698921978214</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>235.4525977039178</v>
+        <v>235.4525977039177</v>
       </c>
       <c r="W16" t="n">
-        <v>269.8379527166808</v>
+        <v>211.688386266785</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I17" t="n">
-        <v>26.77414463736903</v>
+        <v>26.77414463736902</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>66.61453210442458</v>
+        <v>66.61453210442457</v>
       </c>
       <c r="T17" t="n">
         <v>128.9150617922306</v>
@@ -1910,7 +1910,7 @@
         <v>287.0171158318901</v>
       </c>
       <c r="Y17" t="n">
-        <v>303.5239538094747</v>
+        <v>303.5239538094746</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.11799533535837</v>
+        <v>97.11799533535836</v>
       </c>
       <c r="C19" t="n">
-        <v>84.53283625204891</v>
+        <v>84.5328362520489</v>
       </c>
       <c r="D19" t="n">
-        <v>65.90148817163343</v>
+        <v>65.90148817163342</v>
       </c>
       <c r="E19" t="n">
-        <v>63.71997779999025</v>
+        <v>63.71997779999023</v>
       </c>
       <c r="F19" t="n">
-        <v>62.70706317635232</v>
+        <v>62.70706317635231</v>
       </c>
       <c r="G19" t="n">
-        <v>84.10198296795976</v>
+        <v>84.10198296795974</v>
       </c>
       <c r="H19" t="n">
         <v>69.0662668430985</v>
       </c>
       <c r="I19" t="n">
-        <v>37.40068837806467</v>
+        <v>37.40068837806466</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>41.7466147466933</v>
+        <v>41.74661474669328</v>
       </c>
       <c r="S19" t="n">
-        <v>120.8253665568044</v>
+        <v>120.8253665568043</v>
       </c>
       <c r="T19" t="n">
         <v>140.2111007122259</v>
@@ -2491,7 +2491,7 @@
         <v>84.10198296795976</v>
       </c>
       <c r="H25" t="n">
-        <v>69.06626684309852</v>
+        <v>69.0662668430985</v>
       </c>
       <c r="I25" t="n">
         <v>37.40068837806467</v>
@@ -2555,7 +2555,7 @@
         <v>303.9789810668174</v>
       </c>
       <c r="C26" t="n">
-        <v>286.5180311743444</v>
+        <v>286.5180311743443</v>
       </c>
       <c r="D26" t="n">
         <v>275.9281810240198</v>
@@ -2573,7 +2573,7 @@
         <v>233.893123595871</v>
       </c>
       <c r="I26" t="n">
-        <v>30.73326888728478</v>
+        <v>30.73326888728472</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,10 +2603,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.57365635434033</v>
+        <v>70.57365635434027</v>
       </c>
       <c r="T26" t="n">
-        <v>132.8741860421464</v>
+        <v>132.8741860421463</v>
       </c>
       <c r="U26" t="n">
         <v>172.3812333770726</v>
@@ -2621,7 +2621,7 @@
         <v>290.9762400818058</v>
       </c>
       <c r="Y26" t="n">
-        <v>307.4830780593904</v>
+        <v>307.4830780593903</v>
       </c>
     </row>
     <row r="27">
@@ -2713,25 +2713,25 @@
         <v>101.0771195852741</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>88.4919605019646</v>
       </c>
       <c r="D28" t="n">
-        <v>63.96388350612281</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>67.67910204990599</v>
+        <v>43.15102505406495</v>
       </c>
       <c r="F28" t="n">
-        <v>66.66618742626807</v>
+        <v>66.66618742626801</v>
       </c>
       <c r="G28" t="n">
-        <v>88.0611072178755</v>
+        <v>88.06110721787545</v>
       </c>
       <c r="H28" t="n">
-        <v>73.02539109301425</v>
+        <v>73.02539109301421</v>
       </c>
       <c r="I28" t="n">
-        <v>41.35981262798042</v>
+        <v>41.35981262798036</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>45.70573899660904</v>
+        <v>45.70573899660899</v>
       </c>
       <c r="S28" t="n">
-        <v>124.7844908067201</v>
+        <v>124.78449080672</v>
       </c>
       <c r="T28" t="n">
         <v>144.1702249621416</v>
@@ -2776,7 +2776,7 @@
         <v>207.7681377399278</v>
       </c>
       <c r="X28" t="n">
-        <v>146.954794792374</v>
+        <v>146.9547947923739</v>
       </c>
       <c r="Y28" t="n">
         <v>139.8297927554316</v>
@@ -2792,7 +2792,7 @@
         <v>303.9789810668174</v>
       </c>
       <c r="C29" t="n">
-        <v>286.5180311743444</v>
+        <v>286.5180311743443</v>
       </c>
       <c r="D29" t="n">
         <v>275.9281810240198</v>
@@ -2810,7 +2810,7 @@
         <v>233.893123595871</v>
       </c>
       <c r="I29" t="n">
-        <v>30.73326888728478</v>
+        <v>30.73326888728474</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.57365635434033</v>
+        <v>70.57365635434027</v>
       </c>
       <c r="T29" t="n">
-        <v>132.8741860421464</v>
+        <v>132.8741860421463</v>
       </c>
       <c r="U29" t="n">
         <v>172.3812333770726</v>
@@ -2950,25 +2950,25 @@
         <v>101.0771195852741</v>
       </c>
       <c r="C31" t="n">
-        <v>88.49196050196466</v>
+        <v>88.49196050196461</v>
       </c>
       <c r="D31" t="n">
-        <v>69.86061242154918</v>
+        <v>69.86061242154913</v>
       </c>
       <c r="E31" t="n">
-        <v>67.67910204990599</v>
+        <v>67.67910204990595</v>
       </c>
       <c r="F31" t="n">
-        <v>66.66618742626807</v>
+        <v>66.66618742626802</v>
       </c>
       <c r="G31" t="n">
-        <v>88.0611072178755</v>
+        <v>88.06110721787546</v>
       </c>
       <c r="H31" t="n">
-        <v>73.02539109301425</v>
+        <v>73.02539109301421</v>
       </c>
       <c r="I31" t="n">
-        <v>41.35981262798042</v>
+        <v>41.35981262798038</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>45.70573899660904</v>
+        <v>45.705738996609</v>
       </c>
       <c r="S31" t="n">
         <v>124.7844908067201</v>
@@ -3007,13 +3007,13 @@
         <v>207.5000772210684</v>
       </c>
       <c r="V31" t="n">
-        <v>78.99409330977414</v>
+        <v>173.3827827271648</v>
       </c>
       <c r="W31" t="n">
         <v>207.7681377399278</v>
       </c>
       <c r="X31" t="n">
-        <v>146.954794792374</v>
+        <v>52.56610537498366</v>
       </c>
       <c r="Y31" t="n">
         <v>139.8297927554316</v>
@@ -3047,7 +3047,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I32" t="n">
-        <v>26.77414463736903</v>
+        <v>26.77414463736902</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>66.61453210442458</v>
+        <v>66.61453210442457</v>
       </c>
       <c r="T32" t="n">
         <v>128.9150617922306</v>
@@ -3095,7 +3095,7 @@
         <v>287.0171158318901</v>
       </c>
       <c r="Y32" t="n">
-        <v>303.5239538094747</v>
+        <v>303.5239538094746</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.11799533535837</v>
+        <v>97.11799533535836</v>
       </c>
       <c r="C34" t="n">
-        <v>84.53283625204891</v>
+        <v>84.5328362520489</v>
       </c>
       <c r="D34" t="n">
-        <v>65.90148817163343</v>
+        <v>65.90148817163342</v>
       </c>
       <c r="E34" t="n">
-        <v>63.71997779999025</v>
+        <v>63.71997779999023</v>
       </c>
       <c r="F34" t="n">
-        <v>62.70706317635232</v>
+        <v>62.70706317635231</v>
       </c>
       <c r="G34" t="n">
-        <v>84.10198296795976</v>
+        <v>84.10198296795974</v>
       </c>
       <c r="H34" t="n">
-        <v>69.06626684309852</v>
+        <v>69.06626684309849</v>
       </c>
       <c r="I34" t="n">
-        <v>37.40068837806467</v>
+        <v>37.40068837806466</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.7466147466933</v>
+        <v>41.74661474669328</v>
       </c>
       <c r="S34" t="n">
-        <v>120.8253665568044</v>
+        <v>120.8253665568043</v>
       </c>
       <c r="T34" t="n">
         <v>140.2111007122259</v>
@@ -3284,7 +3284,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I35" t="n">
-        <v>26.77414463736903</v>
+        <v>26.77414463736905</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>66.61453210442458</v>
+        <v>66.6145321044246</v>
       </c>
       <c r="T35" t="n">
         <v>128.9150617922306</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.11799533535837</v>
+        <v>97.11799533535839</v>
       </c>
       <c r="C37" t="n">
-        <v>84.53283625204891</v>
+        <v>84.53283625204892</v>
       </c>
       <c r="D37" t="n">
-        <v>65.90148817163343</v>
+        <v>65.90148817163345</v>
       </c>
       <c r="E37" t="n">
-        <v>63.71997779999025</v>
+        <v>63.71997779999026</v>
       </c>
       <c r="F37" t="n">
-        <v>62.70706317635232</v>
+        <v>62.70706317635234</v>
       </c>
       <c r="G37" t="n">
-        <v>84.10198296795976</v>
+        <v>84.10198296795977</v>
       </c>
       <c r="H37" t="n">
-        <v>69.0662668430985</v>
+        <v>69.06626684309852</v>
       </c>
       <c r="I37" t="n">
-        <v>37.40068837806467</v>
+        <v>37.40068837806469</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.7466147466933</v>
+        <v>41.74661474669331</v>
       </c>
       <c r="S37" t="n">
         <v>120.8253665568044</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>300.0198568169016</v>
+        <v>300.0198568169017</v>
       </c>
       <c r="C38" t="n">
         <v>282.5589069244286</v>
       </c>
       <c r="D38" t="n">
-        <v>271.9690567741039</v>
+        <v>271.969056774104</v>
       </c>
       <c r="E38" t="n">
-        <v>299.2163852256828</v>
+        <v>299.2163852256829</v>
       </c>
       <c r="F38" t="n">
-        <v>324.1620608951324</v>
+        <v>324.1620608951325</v>
       </c>
       <c r="G38" t="n">
         <v>329.9692659922976</v>
       </c>
       <c r="H38" t="n">
-        <v>229.9339993459552</v>
+        <v>229.9339993459553</v>
       </c>
       <c r="I38" t="n">
-        <v>26.77414463736896</v>
+        <v>26.77414463736905</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.61453210442451</v>
+        <v>66.6145321044246</v>
       </c>
       <c r="T38" t="n">
-        <v>128.9150617922305</v>
+        <v>128.9150617922306</v>
       </c>
       <c r="U38" t="n">
-        <v>168.4221091271568</v>
+        <v>168.4221091271569</v>
       </c>
       <c r="V38" t="n">
-        <v>245.0382736235559</v>
+        <v>245.038273623556</v>
       </c>
       <c r="W38" t="n">
-        <v>266.526983870834</v>
+        <v>266.5269838708341</v>
       </c>
       <c r="X38" t="n">
-        <v>287.01711583189</v>
+        <v>287.0171158318901</v>
       </c>
       <c r="Y38" t="n">
-        <v>303.5239538094746</v>
+        <v>303.5239538094747</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.1179953353583</v>
+        <v>97.11799533535839</v>
       </c>
       <c r="C40" t="n">
-        <v>84.53283625204884</v>
+        <v>84.53283625204892</v>
       </c>
       <c r="D40" t="n">
-        <v>65.90148817163336</v>
+        <v>65.90148817163345</v>
       </c>
       <c r="E40" t="n">
-        <v>63.71997779999018</v>
+        <v>63.71997779999026</v>
       </c>
       <c r="F40" t="n">
-        <v>62.70706317635225</v>
+        <v>62.70706317635234</v>
       </c>
       <c r="G40" t="n">
-        <v>84.10198296795969</v>
+        <v>84.10198296795977</v>
       </c>
       <c r="H40" t="n">
-        <v>69.06626684309843</v>
+        <v>69.06626684309852</v>
       </c>
       <c r="I40" t="n">
-        <v>37.4006883780646</v>
+        <v>37.40068837806469</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.74661474669323</v>
+        <v>41.74661474669331</v>
       </c>
       <c r="S40" t="n">
-        <v>120.8253665568043</v>
+        <v>120.8253665568044</v>
       </c>
       <c r="T40" t="n">
-        <v>140.2111007122258</v>
+        <v>140.2111007122259</v>
       </c>
       <c r="U40" t="n">
-        <v>203.5409529711526</v>
+        <v>203.5409529711527</v>
       </c>
       <c r="V40" t="n">
-        <v>169.423658477249</v>
+        <v>169.4236584772491</v>
       </c>
       <c r="W40" t="n">
-        <v>203.809013490012</v>
+        <v>203.8090134900121</v>
       </c>
       <c r="X40" t="n">
         <v>142.9956705424582</v>
       </c>
       <c r="Y40" t="n">
-        <v>135.8706685055158</v>
+        <v>135.8706685055159</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>300.0198568169017</v>
+        <v>300.0198568169016</v>
       </c>
       <c r="C41" t="n">
         <v>282.5589069244286</v>
@@ -3746,7 +3746,7 @@
         <v>271.969056774104</v>
       </c>
       <c r="E41" t="n">
-        <v>299.2163852256829</v>
+        <v>299.2163852256828</v>
       </c>
       <c r="F41" t="n">
         <v>324.1620608951325</v>
@@ -3758,7 +3758,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I41" t="n">
-        <v>26.77414463736902</v>
+        <v>26.77414463736901</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.61453210442457</v>
+        <v>66.61453210442455</v>
       </c>
       <c r="T41" t="n">
         <v>128.9150617922306</v>
@@ -3797,10 +3797,10 @@
         <v>168.4221091271569</v>
       </c>
       <c r="V41" t="n">
-        <v>245.038273623556</v>
+        <v>245.0382736235559</v>
       </c>
       <c r="W41" t="n">
-        <v>266.5269838708341</v>
+        <v>266.526983870834</v>
       </c>
       <c r="X41" t="n">
         <v>287.0171158318901</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.11799533535836</v>
+        <v>97.11799533535834</v>
       </c>
       <c r="C43" t="n">
-        <v>84.5328362520489</v>
+        <v>84.53283625204888</v>
       </c>
       <c r="D43" t="n">
-        <v>65.90148817163342</v>
+        <v>65.9014881716334</v>
       </c>
       <c r="E43" t="n">
-        <v>63.71997779999023</v>
+        <v>63.71997779999022</v>
       </c>
       <c r="F43" t="n">
-        <v>62.70706317635231</v>
+        <v>62.70706317635229</v>
       </c>
       <c r="G43" t="n">
-        <v>84.10198296795974</v>
+        <v>84.10198296795973</v>
       </c>
       <c r="H43" t="n">
-        <v>69.0662668430985</v>
+        <v>69.06626684309849</v>
       </c>
       <c r="I43" t="n">
-        <v>37.40068837806466</v>
+        <v>37.40068837806464</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.74661474669328</v>
+        <v>41.74661474669327</v>
       </c>
       <c r="S43" t="n">
         <v>120.8253665568043</v>
@@ -3952,19 +3952,19 @@
         <v>140.2111007122259</v>
       </c>
       <c r="U43" t="n">
-        <v>203.5409529711527</v>
+        <v>203.5409529711526</v>
       </c>
       <c r="V43" t="n">
-        <v>169.4236584772491</v>
+        <v>169.423658477249</v>
       </c>
       <c r="W43" t="n">
-        <v>203.8090134900121</v>
+        <v>203.809013490012</v>
       </c>
       <c r="X43" t="n">
         <v>142.9956705424582</v>
       </c>
       <c r="Y43" t="n">
-        <v>135.8706685055159</v>
+        <v>135.8706685055158</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>300.0198568169017</v>
+        <v>300.0198568169016</v>
       </c>
       <c r="C44" t="n">
         <v>282.5589069244286</v>
@@ -3983,7 +3983,7 @@
         <v>271.969056774104</v>
       </c>
       <c r="E44" t="n">
-        <v>299.2163852256829</v>
+        <v>299.2163852256828</v>
       </c>
       <c r="F44" t="n">
         <v>324.1620608951325</v>
@@ -3995,7 +3995,7 @@
         <v>229.9339993459553</v>
       </c>
       <c r="I44" t="n">
-        <v>26.77414463736905</v>
+        <v>26.77414463736899</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.6145321044246</v>
+        <v>66.61453210442454</v>
       </c>
       <c r="T44" t="n">
         <v>128.9150617922306</v>
@@ -4034,16 +4034,16 @@
         <v>168.4221091271569</v>
       </c>
       <c r="V44" t="n">
-        <v>245.038273623556</v>
+        <v>245.0382736235559</v>
       </c>
       <c r="W44" t="n">
-        <v>266.5269838708341</v>
+        <v>266.526983870834</v>
       </c>
       <c r="X44" t="n">
         <v>287.0171158318901</v>
       </c>
       <c r="Y44" t="n">
-        <v>303.5239538094747</v>
+        <v>303.5239538094746</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.11799533535839</v>
+        <v>97.11799533535833</v>
       </c>
       <c r="C46" t="n">
-        <v>84.53283625204892</v>
+        <v>84.53283625204887</v>
       </c>
       <c r="D46" t="n">
-        <v>65.90148817163345</v>
+        <v>65.90148817163339</v>
       </c>
       <c r="E46" t="n">
-        <v>63.71997779999026</v>
+        <v>63.7199777999902</v>
       </c>
       <c r="F46" t="n">
-        <v>62.70706317635234</v>
+        <v>62.70706317635228</v>
       </c>
       <c r="G46" t="n">
-        <v>84.10198296795977</v>
+        <v>84.10198296795971</v>
       </c>
       <c r="H46" t="n">
-        <v>69.06626684309853</v>
+        <v>69.06626684309846</v>
       </c>
       <c r="I46" t="n">
-        <v>37.40068837806469</v>
+        <v>37.40068837806463</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.74661474669331</v>
+        <v>41.74661474669325</v>
       </c>
       <c r="S46" t="n">
-        <v>120.8253665568044</v>
+        <v>120.8253665568043</v>
       </c>
       <c r="T46" t="n">
-        <v>140.2111007122259</v>
+        <v>140.2111007122258</v>
       </c>
       <c r="U46" t="n">
-        <v>203.5409529711527</v>
+        <v>203.5409529711526</v>
       </c>
       <c r="V46" t="n">
-        <v>169.4236584772491</v>
+        <v>169.423658477249</v>
       </c>
       <c r="W46" t="n">
-        <v>203.8090134900121</v>
+        <v>203.809013490012</v>
       </c>
       <c r="X46" t="n">
         <v>142.9956705424582</v>
       </c>
       <c r="Y46" t="n">
-        <v>135.8706685055159</v>
+        <v>135.8706685055158</v>
       </c>
     </row>
   </sheetData>
@@ -4778,10 +4778,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C8" t="n">
-        <v>44.20882949099123</v>
+        <v>45.75363943919166</v>
       </c>
       <c r="D8" t="n">
         <v>44.20882949099123</v>
@@ -4805,49 +4805,49 @@
         <v>1.224219001210804</v>
       </c>
       <c r="K8" t="n">
-        <v>16.37392914119451</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="L8" t="n">
-        <v>31.52363928117821</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M8" t="n">
-        <v>46.6733494211619</v>
+        <v>15.7618196405891</v>
       </c>
       <c r="N8" t="n">
-        <v>61.2109500605402</v>
+        <v>30.9115297805728</v>
       </c>
       <c r="O8" t="n">
-        <v>61.2109500605402</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P8" t="n">
         <v>61.2109500605402</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.11933469231312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="R8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y8" t="n">
-        <v>44.20882949099123</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="C9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="D9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="E9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="F9" t="n">
-        <v>17.43566227534506</v>
+        <v>48.35028351804213</v>
       </c>
       <c r="G9" t="n">
-        <v>17.43566227534506</v>
+        <v>32.89297289669359</v>
       </c>
       <c r="H9" t="n">
         <v>17.43566227534506</v>
@@ -4887,16 +4887,16 @@
         <v>1.224219001210804</v>
       </c>
       <c r="L9" t="n">
-        <v>15.7618196405891</v>
+        <v>1.224219001210804</v>
       </c>
       <c r="M9" t="n">
-        <v>15.7618196405891</v>
+        <v>16.37392914119451</v>
       </c>
       <c r="N9" t="n">
-        <v>15.7618196405891</v>
+        <v>31.52363928117821</v>
       </c>
       <c r="O9" t="n">
-        <v>30.9115297805728</v>
+        <v>46.0612399205565</v>
       </c>
       <c r="P9" t="n">
         <v>46.0612399205565</v>
@@ -4905,28 +4905,28 @@
         <v>61.2109500605402</v>
       </c>
       <c r="R9" t="n">
-        <v>45.75363943919166</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="S9" t="n">
-        <v>30.29632881784312</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="T9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="U9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="V9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="W9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="X9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
       <c r="Y9" t="n">
-        <v>17.43566227534506</v>
+        <v>61.2109500605402</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>58.46202002507908</v>
+      </c>
+      <c r="C10" t="n">
+        <v>58.46202002507908</v>
+      </c>
+      <c r="D10" t="n">
+        <v>58.46202002507908</v>
+      </c>
+      <c r="E10" t="n">
+        <v>43.00470940373054</v>
+      </c>
+      <c r="F10" t="n">
+        <v>27.54739878238201</v>
+      </c>
+      <c r="G10" t="n">
         <v>12.09008816103347</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="F10" t="n">
-        <v>1.224219001210804</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.224219001210804</v>
       </c>
       <c r="H10" t="n">
         <v>1.224219001210804</v>
@@ -4981,31 +4981,31 @@
         <v>58.46202002507908</v>
       </c>
       <c r="Q10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="R10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="S10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="T10" t="n">
-        <v>43.00470940373054</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="U10" t="n">
-        <v>27.54739878238201</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="V10" t="n">
-        <v>27.54739878238201</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="W10" t="n">
-        <v>27.54739878238201</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="X10" t="n">
-        <v>27.54739878238201</v>
+        <v>58.46202002507908</v>
       </c>
       <c r="Y10" t="n">
-        <v>27.54739878238201</v>
+        <v>58.46202002507908</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5015,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.320839458554</v>
+        <v>1558.442095840204</v>
       </c>
       <c r="C11" t="n">
-        <v>1876.211903952395</v>
+        <v>1206.333160334045</v>
       </c>
       <c r="D11" t="n">
-        <v>1534.799786779897</v>
+        <v>864.9210431615477</v>
       </c>
       <c r="E11" t="n">
-        <v>1165.865115615906</v>
+        <v>495.9863719975562</v>
       </c>
       <c r="F11" t="n">
-        <v>771.7327922605512</v>
+        <v>495.9863719975562</v>
       </c>
       <c r="G11" t="n">
-        <v>371.7346051706868</v>
+        <v>465.4750939222399</v>
       </c>
       <c r="H11" t="n">
-        <v>72.78214196601606</v>
+        <v>166.5226307175693</v>
       </c>
       <c r="I11" t="n">
         <v>72.78214196601606</v>
       </c>
       <c r="J11" t="n">
-        <v>167.3040473146235</v>
+        <v>113.6490972008052</v>
       </c>
       <c r="K11" t="n">
-        <v>600.1954962377188</v>
+        <v>546.5405461239004</v>
       </c>
       <c r="L11" t="n">
-        <v>1189.512245049413</v>
+        <v>1135.857294935594</v>
       </c>
       <c r="M11" t="n">
-        <v>1861.847222756476</v>
+        <v>1808.192272642657</v>
       </c>
       <c r="N11" t="n">
-        <v>2530.429285761605</v>
+        <v>2476.774335647786</v>
       </c>
       <c r="O11" t="n">
-        <v>3116.564731271467</v>
+        <v>3062.909781157648</v>
       </c>
       <c r="P11" t="n">
-        <v>3579.1433903838</v>
+        <v>3525.488440269982</v>
       </c>
       <c r="Q11" t="n">
         <v>3639.107098300803</v>
@@ -5069,22 +5069,22 @@
         <v>3505.123793925961</v>
       </c>
       <c r="T11" t="n">
-        <v>3505.123793925961</v>
+        <v>3308.210661583638</v>
       </c>
       <c r="U11" t="n">
-        <v>3268.30455316452</v>
+        <v>3308.210661583638</v>
       </c>
       <c r="V11" t="n">
-        <v>2954.095247255203</v>
+        <v>2994.00135567432</v>
       </c>
       <c r="W11" t="n">
-        <v>2618.180173419341</v>
+        <v>2658.086281838458</v>
       </c>
       <c r="X11" t="n">
-        <v>2601.606590000113</v>
+        <v>2301.474105011631</v>
       </c>
       <c r="Y11" t="n">
-        <v>2228.320839458554</v>
+        <v>1928.188354470073</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J12" t="n">
-        <v>203.1344985671975</v>
+        <v>78.30437358019273</v>
       </c>
       <c r="K12" t="n">
-        <v>552.5482813313133</v>
+        <v>427.7181563443086</v>
       </c>
       <c r="L12" t="n">
-        <v>1083.782628883513</v>
+        <v>958.9525038965079</v>
       </c>
       <c r="M12" t="n">
-        <v>1524.811673158918</v>
+        <v>1183.593682286867</v>
       </c>
       <c r="N12" t="n">
-        <v>1755.65770120643</v>
+        <v>1888.988660934496</v>
       </c>
       <c r="O12" t="n">
-        <v>1944.616922238928</v>
+        <v>2467.871578050956</v>
       </c>
       <c r="P12" t="n">
-        <v>2392.218430766964</v>
+        <v>2600.194945625454</v>
       </c>
       <c r="Q12" t="n">
         <v>2638.730416165795</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>337.1047120922394</v>
+        <v>224.4295381222066</v>
       </c>
       <c r="C13" t="n">
-        <v>337.1047120922394</v>
+        <v>224.4295381222066</v>
       </c>
       <c r="D13" t="n">
-        <v>203.8416541141564</v>
+        <v>224.4295381222066</v>
       </c>
       <c r="E13" t="n">
-        <v>72.78214196601606</v>
+        <v>224.4295381222066</v>
       </c>
       <c r="F13" t="n">
-        <v>72.78214196601606</v>
+        <v>224.4295381222066</v>
       </c>
       <c r="G13" t="n">
         <v>72.78214196601606</v>
@@ -5197,52 +5197,52 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J13" t="n">
-        <v>79.11733180781914</v>
+        <v>79.11733180781911</v>
       </c>
       <c r="K13" t="n">
-        <v>208.7385578455934</v>
+        <v>208.7385578455935</v>
       </c>
       <c r="L13" t="n">
-        <v>425.516127120438</v>
+        <v>425.5161271204382</v>
       </c>
       <c r="M13" t="n">
-        <v>663.5688769426963</v>
+        <v>663.5688769426965</v>
       </c>
       <c r="N13" t="n">
-        <v>901.7886466311038</v>
+        <v>901.788646631104</v>
       </c>
       <c r="O13" t="n">
         <v>1107.067833793539</v>
       </c>
       <c r="P13" t="n">
-        <v>1261.582984852308</v>
+        <v>1261.582984852309</v>
       </c>
       <c r="Q13" t="n">
-        <v>1290.208039176272</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="R13" t="n">
-        <v>1290.208039176272</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="S13" t="n">
-        <v>1101.466316162663</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="T13" t="n">
-        <v>1101.466316162663</v>
+        <v>1290.208039176273</v>
       </c>
       <c r="U13" t="n">
-        <v>829.1734957608236</v>
+        <v>1017.915218774433</v>
       </c>
       <c r="V13" t="n">
-        <v>591.3425889891893</v>
+        <v>780.0843120027994</v>
       </c>
       <c r="W13" t="n">
-        <v>548.240681556004</v>
+        <v>600.3603909819579</v>
       </c>
       <c r="X13" t="n">
-        <v>337.1047120922394</v>
+        <v>389.2244215181934</v>
       </c>
       <c r="Y13" t="n">
-        <v>337.1047120922394</v>
+        <v>389.2244215181934</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1953.126657046117</v>
+        <v>1969.952392703949</v>
       </c>
       <c r="C14" t="n">
-        <v>1601.017721539958</v>
+        <v>1969.952392703949</v>
       </c>
       <c r="D14" t="n">
-        <v>1259.60560436746</v>
+        <v>1628.540275531451</v>
       </c>
       <c r="E14" t="n">
         <v>1259.60560436746</v>
       </c>
       <c r="F14" t="n">
-        <v>865.473281012105</v>
+        <v>865.4732810121048</v>
       </c>
       <c r="G14" t="n">
-        <v>465.47509392224</v>
+        <v>465.4750939222399</v>
       </c>
       <c r="H14" t="n">
-        <v>166.5226307175694</v>
+        <v>166.5226307175693</v>
       </c>
       <c r="I14" t="n">
         <v>72.78214196601606</v>
@@ -5285,43 +5285,43 @@
         <v>1303.262943955947</v>
       </c>
       <c r="M14" t="n">
-        <v>1651.65538200317</v>
+        <v>1637.124942136657</v>
       </c>
       <c r="N14" t="n">
-        <v>2320.237445008299</v>
+        <v>2305.707005141785</v>
       </c>
       <c r="O14" t="n">
-        <v>2906.372890518162</v>
+        <v>2891.842450651648</v>
       </c>
       <c r="P14" t="n">
-        <v>3368.951549630495</v>
+        <v>3354.421109763981</v>
       </c>
       <c r="Q14" t="n">
-        <v>3639.107098300803</v>
+        <v>3624.57665843429</v>
       </c>
       <c r="R14" t="n">
         <v>3639.107098300803</v>
       </c>
       <c r="S14" t="n">
-        <v>3566.428713009432</v>
+        <v>3505.123793925961</v>
       </c>
       <c r="T14" t="n">
-        <v>3566.428713009432</v>
+        <v>3308.210661583638</v>
       </c>
       <c r="U14" t="n">
-        <v>3329.609472247992</v>
+        <v>3071.391420822199</v>
       </c>
       <c r="V14" t="n">
-        <v>3015.400166338674</v>
+        <v>3071.391420822199</v>
       </c>
       <c r="W14" t="n">
-        <v>2679.485092502813</v>
+        <v>2735.476346986337</v>
       </c>
       <c r="X14" t="n">
-        <v>2322.872915675985</v>
+        <v>2712.984401875377</v>
       </c>
       <c r="Y14" t="n">
-        <v>2322.872915675985</v>
+        <v>2339.698651333817</v>
       </c>
     </row>
     <row r="15">
@@ -5361,13 +5361,13 @@
         <v>552.5482813313133</v>
       </c>
       <c r="L15" t="n">
-        <v>716.650687033088</v>
+        <v>1083.782628883513</v>
       </c>
       <c r="M15" t="n">
-        <v>927.5073224488965</v>
+        <v>1294.639264299321</v>
       </c>
       <c r="N15" t="n">
-        <v>1365.734005122468</v>
+        <v>1525.485292346833</v>
       </c>
       <c r="O15" t="n">
         <v>1944.616922238928</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>507.520723400091</v>
+        <v>729.6862836772178</v>
       </c>
       <c r="C16" t="n">
-        <v>507.520723400091</v>
+        <v>729.6862836772178</v>
       </c>
       <c r="D16" t="n">
-        <v>507.520723400091</v>
+        <v>596.4232256991349</v>
       </c>
       <c r="E16" t="n">
-        <v>507.520723400091</v>
+        <v>465.3637135509946</v>
       </c>
       <c r="F16" t="n">
-        <v>465.3637135509948</v>
+        <v>465.3637135509946</v>
       </c>
       <c r="G16" t="n">
-        <v>313.7163173948045</v>
+        <v>313.7163173948044</v>
       </c>
       <c r="H16" t="n">
         <v>177.2565132839285</v>
@@ -5434,19 +5434,19 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J16" t="n">
-        <v>79.11733180781908</v>
+        <v>79.11733180781917</v>
       </c>
       <c r="K16" t="n">
-        <v>208.7385578455934</v>
+        <v>208.7385578455936</v>
       </c>
       <c r="L16" t="n">
-        <v>425.516127120438</v>
+        <v>425.5161271204383</v>
       </c>
       <c r="M16" t="n">
-        <v>663.5688769426963</v>
+        <v>663.5688769426966</v>
       </c>
       <c r="N16" t="n">
-        <v>901.7886466311038</v>
+        <v>901.7886466311043</v>
       </c>
       <c r="O16" t="n">
         <v>1107.067833793539</v>
@@ -5458,28 +5458,28 @@
         <v>1290.208039176273</v>
       </c>
       <c r="R16" t="n">
-        <v>1290.208039176273</v>
+        <v>1181.343843243584</v>
       </c>
       <c r="S16" t="n">
-        <v>1290.208039176273</v>
+        <v>1181.343843243584</v>
       </c>
       <c r="T16" t="n">
-        <v>1290.208039176273</v>
+        <v>1181.343843243584</v>
       </c>
       <c r="U16" t="n">
-        <v>1017.915218774433</v>
+        <v>1181.343843243584</v>
       </c>
       <c r="V16" t="n">
-        <v>780.0843120027988</v>
+        <v>943.5129364719502</v>
       </c>
       <c r="W16" t="n">
-        <v>507.520723400091</v>
+        <v>729.6862836772178</v>
       </c>
       <c r="X16" t="n">
-        <v>507.520723400091</v>
+        <v>729.6862836772178</v>
       </c>
       <c r="Y16" t="n">
-        <v>507.520723400091</v>
+        <v>729.6862836772178</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1855.190040748813</v>
+        <v>1855.190040748814</v>
       </c>
       <c r="C17" t="n">
-        <v>1569.777003451411</v>
+        <v>1569.777003451412</v>
       </c>
       <c r="D17" t="n">
-        <v>1295.060784487669</v>
+        <v>1295.06078448767</v>
       </c>
       <c r="E17" t="n">
-        <v>992.8220115324339</v>
+        <v>992.8220115324352</v>
       </c>
       <c r="F17" t="n">
-        <v>665.3855863858353</v>
+        <v>665.3855863858366</v>
       </c>
       <c r="G17" t="n">
-        <v>332.0832975047265</v>
+        <v>332.083297504728</v>
       </c>
       <c r="H17" t="n">
-        <v>99.82673250881307</v>
+        <v>99.82673250881305</v>
       </c>
       <c r="I17" t="n">
         <v>72.78214196601606</v>
@@ -5522,7 +5522,7 @@
         <v>1303.262943955947</v>
       </c>
       <c r="M17" t="n">
-        <v>1637.124942136657</v>
+        <v>1975.597921663011</v>
       </c>
       <c r="N17" t="n">
         <v>2305.707005141786</v>
@@ -5543,22 +5543,22 @@
         <v>3571.819692134716</v>
       </c>
       <c r="T17" t="n">
-        <v>3441.60245800115</v>
+        <v>3441.602458001151</v>
       </c>
       <c r="U17" t="n">
-        <v>3271.479115448466</v>
+        <v>3271.479115448467</v>
       </c>
       <c r="V17" t="n">
-        <v>3023.965707747905</v>
+        <v>3023.965707747906</v>
       </c>
       <c r="W17" t="n">
-        <v>2754.7465321208</v>
+        <v>2754.746532120801</v>
       </c>
       <c r="X17" t="n">
-        <v>2464.830253502729</v>
+        <v>2464.83025350273</v>
       </c>
       <c r="Y17" t="n">
-        <v>2158.240401169926</v>
+        <v>2158.240401169927</v>
       </c>
     </row>
     <row r="18">
@@ -5598,19 +5598,19 @@
         <v>165.8975717018557</v>
       </c>
       <c r="L18" t="n">
-        <v>329.9999774036305</v>
+        <v>511.6890337585583</v>
       </c>
       <c r="M18" t="n">
-        <v>1001.904625931939</v>
+        <v>1183.593682286867</v>
       </c>
       <c r="N18" t="n">
-        <v>1365.734005122468</v>
+        <v>1888.988660934496</v>
       </c>
       <c r="O18" t="n">
-        <v>1944.616922238928</v>
+        <v>2467.871578050956</v>
       </c>
       <c r="P18" t="n">
-        <v>2392.218430766964</v>
+        <v>2600.194945625454</v>
       </c>
       <c r="Q18" t="n">
         <v>2638.730416165795</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>544.9339637732361</v>
+        <v>544.933963773236</v>
       </c>
       <c r="C19" t="n">
-        <v>459.5472604883382</v>
+        <v>459.5472604883381</v>
       </c>
       <c r="D19" t="n">
-        <v>392.9801007190115</v>
+        <v>392.9801007190114</v>
       </c>
       <c r="E19" t="n">
-        <v>328.6164867796275</v>
+        <v>328.6164867796273</v>
       </c>
       <c r="F19" t="n">
-        <v>265.2760189247261</v>
+        <v>265.276018924726</v>
       </c>
       <c r="G19" t="n">
         <v>180.324520977292</v>
@@ -5671,19 +5671,19 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J19" t="n">
-        <v>144.4859816422211</v>
+        <v>144.4859816422208</v>
       </c>
       <c r="K19" t="n">
-        <v>339.4758575143974</v>
+        <v>339.4758575143971</v>
       </c>
       <c r="L19" t="n">
-        <v>621.6220766236438</v>
+        <v>621.6220766236436</v>
       </c>
       <c r="M19" t="n">
-        <v>925.043476280304</v>
+        <v>925.0434762803038</v>
       </c>
       <c r="N19" t="n">
-        <v>1228.631895803114</v>
+        <v>1228.631895803113</v>
       </c>
       <c r="O19" t="n">
         <v>1499.27973279995</v>
@@ -5710,13 +5710,13 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W19" t="n">
-        <v>924.7161197159962</v>
+        <v>924.7161197159963</v>
       </c>
       <c r="X19" t="n">
-        <v>780.2760484609879</v>
+        <v>780.276048460988</v>
       </c>
       <c r="Y19" t="n">
-        <v>643.0329489604668</v>
+        <v>643.0329489604667</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1855.190040748814</v>
+        <v>1855.190040748815</v>
       </c>
       <c r="C20" t="n">
-        <v>1569.777003451411</v>
+        <v>1569.777003451412</v>
       </c>
       <c r="D20" t="n">
         <v>1295.06078448767</v>
       </c>
       <c r="E20" t="n">
-        <v>992.8220115324348</v>
+        <v>992.8220115324352</v>
       </c>
       <c r="F20" t="n">
-        <v>665.3855863858362</v>
+        <v>665.3855863858366</v>
       </c>
       <c r="G20" t="n">
-        <v>332.0832975047274</v>
+        <v>332.0832975047275</v>
       </c>
       <c r="H20" t="n">
         <v>99.82673250881307</v>
@@ -5750,28 +5750,28 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J20" t="n">
-        <v>281.0547462211582</v>
+        <v>113.6490972008052</v>
       </c>
       <c r="K20" t="n">
-        <v>713.9461951442535</v>
+        <v>546.5405461239004</v>
       </c>
       <c r="L20" t="n">
-        <v>1303.262943955947</v>
+        <v>1135.857294935594</v>
       </c>
       <c r="M20" t="n">
-        <v>1637.124942136657</v>
+        <v>1808.192272642657</v>
       </c>
       <c r="N20" t="n">
-        <v>2305.707005141786</v>
+        <v>2476.774335647786</v>
       </c>
       <c r="O20" t="n">
-        <v>2891.842450651649</v>
+        <v>3062.909781157648</v>
       </c>
       <c r="P20" t="n">
-        <v>3354.421109763982</v>
+        <v>3525.488440269982</v>
       </c>
       <c r="Q20" t="n">
-        <v>3624.57665843429</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="R20" t="n">
         <v>3639.107098300803</v>
@@ -5829,25 +5829,25 @@
         <v>72.78214196601606</v>
       </c>
       <c r="J21" t="n">
-        <v>203.1344985671975</v>
+        <v>78.30437358019273</v>
       </c>
       <c r="K21" t="n">
-        <v>552.5482813313133</v>
+        <v>427.7181563443086</v>
       </c>
       <c r="L21" t="n">
-        <v>1083.782628883513</v>
+        <v>958.9525038965079</v>
       </c>
       <c r="M21" t="n">
-        <v>1294.639264299321</v>
+        <v>1169.809139312316</v>
       </c>
       <c r="N21" t="n">
-        <v>1525.485292346833</v>
+        <v>1400.655167359828</v>
       </c>
       <c r="O21" t="n">
-        <v>1944.616922238928</v>
+        <v>1979.538084476289</v>
       </c>
       <c r="P21" t="n">
-        <v>2392.218430766964</v>
+        <v>2427.139593004324</v>
       </c>
       <c r="Q21" t="n">
         <v>2638.730416165795</v>
@@ -5917,13 +5917,13 @@
         <v>621.622076623644</v>
       </c>
       <c r="M22" t="n">
-        <v>925.0434762803043</v>
+        <v>925.043476280304</v>
       </c>
       <c r="N22" t="n">
         <v>1228.631895803114</v>
       </c>
       <c r="O22" t="n">
-        <v>1499.279732799951</v>
+        <v>1499.27973279995</v>
       </c>
       <c r="P22" t="n">
         <v>1719.163533693122</v>
@@ -5981,43 +5981,43 @@
         <v>332.0832975047279</v>
       </c>
       <c r="H23" t="n">
-        <v>99.82673250881307</v>
+        <v>99.82673250881305</v>
       </c>
       <c r="I23" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J23" t="n">
-        <v>152.7736074481105</v>
+        <v>152.7736074481096</v>
       </c>
       <c r="K23" t="n">
-        <v>585.6650563712058</v>
+        <v>585.6650563712049</v>
       </c>
       <c r="L23" t="n">
-        <v>1174.9818051829</v>
+        <v>1174.981805182899</v>
       </c>
       <c r="M23" t="n">
-        <v>1847.316782889963</v>
+        <v>1847.316782889962</v>
       </c>
       <c r="N23" t="n">
-        <v>2515.898845895092</v>
+        <v>2515.898845895091</v>
       </c>
       <c r="O23" t="n">
-        <v>3102.034291404954</v>
+        <v>3102.034291404953</v>
       </c>
       <c r="P23" t="n">
-        <v>3564.612950517287</v>
+        <v>3564.612950517286</v>
       </c>
       <c r="Q23" t="n">
-        <v>3624.57665843429</v>
+        <v>3624.576658434289</v>
       </c>
       <c r="R23" t="n">
-        <v>3639.107098300803</v>
+        <v>3639.107098300802</v>
       </c>
       <c r="S23" t="n">
-        <v>3571.819692134718</v>
+        <v>3571.819692134717</v>
       </c>
       <c r="T23" t="n">
-        <v>3441.602458001151</v>
+        <v>3441.60245800115</v>
       </c>
       <c r="U23" t="n">
         <v>3271.479115448467</v>
@@ -6060,31 +6060,31 @@
         <v>214.0356582988545</v>
       </c>
       <c r="H24" t="n">
-        <v>114.3392621594921</v>
+        <v>114.339262159492</v>
       </c>
       <c r="I24" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J24" t="n">
-        <v>203.1344985671975</v>
+        <v>78.30437358019272</v>
       </c>
       <c r="K24" t="n">
-        <v>552.5482813313133</v>
+        <v>165.8975717018557</v>
       </c>
       <c r="L24" t="n">
-        <v>1083.782628883513</v>
+        <v>697.131919254055</v>
       </c>
       <c r="M24" t="n">
-        <v>1294.639264299321</v>
+        <v>1369.036567782363</v>
       </c>
       <c r="N24" t="n">
-        <v>1525.485292346833</v>
+        <v>1599.882595829875</v>
       </c>
       <c r="O24" t="n">
-        <v>1944.616922238928</v>
+        <v>2178.765512946336</v>
       </c>
       <c r="P24" t="n">
-        <v>2392.218430766964</v>
+        <v>2600.194945625454</v>
       </c>
       <c r="Q24" t="n">
         <v>2638.730416165795</v>
@@ -6121,49 +6121,49 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>544.9339637732359</v>
+        <v>544.9339637732361</v>
       </c>
       <c r="C25" t="n">
-        <v>459.547260488338</v>
+        <v>459.5472604883382</v>
       </c>
       <c r="D25" t="n">
-        <v>392.9801007190113</v>
+        <v>392.9801007190115</v>
       </c>
       <c r="E25" t="n">
-        <v>328.6164867796272</v>
+        <v>328.6164867796275</v>
       </c>
       <c r="F25" t="n">
-        <v>265.2760189247259</v>
+        <v>265.2760189247261</v>
       </c>
       <c r="G25" t="n">
-        <v>180.3245209772917</v>
+        <v>180.324520977292</v>
       </c>
       <c r="H25" t="n">
         <v>110.5606150751723</v>
       </c>
       <c r="I25" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J25" t="n">
         <v>144.4859816422211</v>
       </c>
       <c r="K25" t="n">
-        <v>339.4758575143978</v>
+        <v>339.4758575143972</v>
       </c>
       <c r="L25" t="n">
-        <v>621.622076623644</v>
+        <v>621.6220766236438</v>
       </c>
       <c r="M25" t="n">
-        <v>925.0434762803043</v>
+        <v>925.043476280304</v>
       </c>
       <c r="N25" t="n">
         <v>1228.631895803114</v>
       </c>
       <c r="O25" t="n">
-        <v>1499.279732799951</v>
+        <v>1499.27973279995</v>
       </c>
       <c r="P25" t="n">
-        <v>1719.163533693123</v>
+        <v>1719.163533693122</v>
       </c>
       <c r="Q25" t="n">
         <v>1813.157237851489</v>
@@ -6184,13 +6184,13 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W25" t="n">
-        <v>924.716119715996</v>
+        <v>924.7161197159962</v>
       </c>
       <c r="X25" t="n">
-        <v>780.2760484609877</v>
+        <v>780.2760484609879</v>
       </c>
       <c r="Y25" t="n">
-        <v>643.0329489604666</v>
+        <v>643.0329489604668</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1884.408067577713</v>
+        <v>1884.408067577712</v>
       </c>
       <c r="C26" t="n">
-        <v>1594.995914876355</v>
+        <v>1594.995914876354</v>
       </c>
       <c r="D26" t="n">
-        <v>1316.280580508658</v>
+        <v>1316.280580508657</v>
       </c>
       <c r="E26" t="n">
         <v>1010.042692149467</v>
       </c>
       <c r="F26" t="n">
-        <v>678.6071515989137</v>
+        <v>678.6071515989129</v>
       </c>
       <c r="G26" t="n">
-        <v>341.3057473138497</v>
+        <v>341.3057473138483</v>
       </c>
       <c r="H26" t="n">
-        <v>105.0500669139792</v>
+        <v>105.0500669139791</v>
       </c>
       <c r="I26" t="n">
         <v>74.00636096722685</v>
       </c>
       <c r="J26" t="n">
-        <v>282.278965222369</v>
+        <v>114.873316202016</v>
       </c>
       <c r="K26" t="n">
-        <v>715.1704141454643</v>
+        <v>547.7647651251112</v>
       </c>
       <c r="L26" t="n">
-        <v>1304.487162957158</v>
+        <v>1137.081513936805</v>
       </c>
       <c r="M26" t="n">
-        <v>1976.822140664221</v>
+        <v>1809.416491643868</v>
       </c>
       <c r="N26" t="n">
-        <v>2645.40420366935</v>
+        <v>2477.998554648997</v>
       </c>
       <c r="O26" t="n">
-        <v>3231.539649179212</v>
+        <v>3064.134000158859</v>
       </c>
       <c r="P26" t="n">
-        <v>3430.162499691034</v>
+        <v>3526.712659271192</v>
       </c>
       <c r="Q26" t="n">
-        <v>3700.318048361343</v>
+        <v>3700.318048361342</v>
       </c>
       <c r="R26" t="n">
-        <v>3700.318048361343</v>
+        <v>3700.318048361342</v>
       </c>
       <c r="S26" t="n">
         <v>3629.031526791302</v>
       </c>
       <c r="T26" t="n">
-        <v>3494.815177253781</v>
+        <v>3494.81517725378</v>
       </c>
       <c r="U26" t="n">
-        <v>3320.692719297143</v>
+        <v>3320.692719297141</v>
       </c>
       <c r="V26" t="n">
-        <v>3069.180196192625</v>
+        <v>3069.180196192624</v>
       </c>
       <c r="W26" t="n">
-        <v>2795.961905161565</v>
+        <v>2795.961905161564</v>
       </c>
       <c r="X26" t="n">
-        <v>2502.046511139539</v>
+        <v>2502.046511139537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2191.457543402781</v>
+        <v>2191.45754340278</v>
       </c>
     </row>
     <row r="27">
@@ -6312,10 +6312,10 @@
         <v>1085.006847884723</v>
       </c>
       <c r="M27" t="n">
-        <v>1295.863483300532</v>
+        <v>1526.035892160129</v>
       </c>
       <c r="N27" t="n">
-        <v>1526.709511348043</v>
+        <v>1756.881920207641</v>
       </c>
       <c r="O27" t="n">
         <v>1945.841141240139</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>478.8098800795168</v>
+        <v>478.8098800795173</v>
       </c>
       <c r="C28" t="n">
-        <v>478.8098800795168</v>
+        <v>389.4240613906642</v>
       </c>
       <c r="D28" t="n">
-        <v>414.1998967399988</v>
+        <v>389.4240613906642</v>
       </c>
       <c r="E28" t="n">
-        <v>345.8371673966594</v>
+        <v>345.8371673966592</v>
       </c>
       <c r="F28" t="n">
-        <v>278.4975841378027</v>
+        <v>278.4975841378026</v>
       </c>
       <c r="G28" t="n">
-        <v>189.5469707864134</v>
+        <v>189.5469707864133</v>
       </c>
       <c r="H28" t="n">
-        <v>115.7839494803384</v>
+        <v>115.7839494803383</v>
       </c>
       <c r="I28" t="n">
         <v>74.00636096722685</v>
       </c>
       <c r="J28" t="n">
-        <v>141.7906676360153</v>
+        <v>141.7906676360154</v>
       </c>
       <c r="K28" t="n">
-        <v>332.8610105007749</v>
+        <v>332.8610105007751</v>
       </c>
       <c r="L28" t="n">
-        <v>611.0876966026049</v>
+        <v>611.0876966026052</v>
       </c>
       <c r="M28" t="n">
-        <v>910.5895632518485</v>
+        <v>910.589563251849</v>
       </c>
       <c r="N28" t="n">
-        <v>1210.258449767241</v>
+        <v>1210.258449767242</v>
       </c>
       <c r="O28" t="n">
         <v>1476.986753756662</v>
@@ -6403,16 +6403,16 @@
         <v>1692.951021642417</v>
       </c>
       <c r="Q28" t="n">
-        <v>1783.025192793366</v>
+        <v>1783.025192793367</v>
       </c>
       <c r="R28" t="n">
-        <v>1736.857779665478</v>
+        <v>1736.857779665479</v>
       </c>
       <c r="S28" t="n">
-        <v>1610.81283945667</v>
+        <v>1610.812839456671</v>
       </c>
       <c r="T28" t="n">
-        <v>1465.186349595921</v>
+        <v>1465.186349595922</v>
       </c>
       <c r="U28" t="n">
         <v>1255.590311998883</v>
@@ -6421,13 +6421,13 @@
         <v>1080.45618803205</v>
       </c>
       <c r="W28" t="n">
-        <v>870.5893822341429</v>
+        <v>870.5893822341432</v>
       </c>
       <c r="X28" t="n">
-        <v>722.1501955751793</v>
+        <v>722.1501955751796</v>
       </c>
       <c r="Y28" t="n">
-        <v>580.9079806707027</v>
+        <v>580.9079806707032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1884.408067577712</v>
+        <v>1884.408067577711</v>
       </c>
       <c r="C29" t="n">
-        <v>1594.995914876355</v>
+        <v>1594.995914876353</v>
       </c>
       <c r="D29" t="n">
-        <v>1316.280580508658</v>
+        <v>1316.280580508656</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.042692149467</v>
+        <v>1010.042692149466</v>
       </c>
       <c r="F29" t="n">
-        <v>678.6071515989137</v>
+        <v>678.6071515989124</v>
       </c>
       <c r="G29" t="n">
-        <v>341.3057473138497</v>
+        <v>341.3057473138484</v>
       </c>
       <c r="H29" t="n">
-        <v>105.0500669139792</v>
+        <v>105.0500669139791</v>
       </c>
       <c r="I29" t="n">
         <v>74.00636096722685</v>
@@ -6467,7 +6467,7 @@
         <v>715.1704141454643</v>
       </c>
       <c r="L29" t="n">
-        <v>1304.487162957158</v>
+        <v>1026.000914490133</v>
       </c>
       <c r="M29" t="n">
         <v>1698.335892197197</v>
@@ -6482,31 +6482,31 @@
         <v>3415.632059824521</v>
       </c>
       <c r="Q29" t="n">
-        <v>3685.78760849483</v>
+        <v>3685.787608494829</v>
       </c>
       <c r="R29" t="n">
-        <v>3700.318048361343</v>
+        <v>3700.318048361342</v>
       </c>
       <c r="S29" t="n">
         <v>3629.031526791302</v>
       </c>
       <c r="T29" t="n">
-        <v>3494.815177253781</v>
+        <v>3494.81517725378</v>
       </c>
       <c r="U29" t="n">
-        <v>3320.692719297142</v>
+        <v>3320.692719297141</v>
       </c>
       <c r="V29" t="n">
-        <v>3069.180196192625</v>
+        <v>3069.180196192623</v>
       </c>
       <c r="W29" t="n">
-        <v>2795.961905161565</v>
+        <v>2795.961905161563</v>
       </c>
       <c r="X29" t="n">
-        <v>2502.046511139538</v>
+        <v>2502.046511139537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2191.45754340278</v>
+        <v>2191.457543402779</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>74.00636096722685</v>
       </c>
       <c r="J30" t="n">
-        <v>204.3587175684083</v>
+        <v>79.52859258140353</v>
       </c>
       <c r="K30" t="n">
-        <v>553.772500332524</v>
+        <v>167.1217907030665</v>
       </c>
       <c r="L30" t="n">
-        <v>1085.006847884723</v>
+        <v>698.3561382552658</v>
       </c>
       <c r="M30" t="n">
-        <v>1526.035892160129</v>
+        <v>1370.260786783574</v>
       </c>
       <c r="N30" t="n">
-        <v>1756.881920207641</v>
+        <v>1601.106814831086</v>
       </c>
       <c r="O30" t="n">
-        <v>1945.841141240139</v>
+        <v>2153.817656098629</v>
       </c>
       <c r="P30" t="n">
-        <v>2393.442649768174</v>
+        <v>2601.419164626665</v>
       </c>
       <c r="Q30" t="n">
         <v>2639.954635167006</v>
@@ -6595,43 +6595,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>574.151990602134</v>
+        <v>574.1519906021338</v>
       </c>
       <c r="C31" t="n">
-        <v>484.7661719132809</v>
+        <v>484.7661719132806</v>
       </c>
       <c r="D31" t="n">
-        <v>414.1998967399988</v>
+        <v>414.1998967399987</v>
       </c>
       <c r="E31" t="n">
-        <v>345.8371673966594</v>
+        <v>345.8371673966593</v>
       </c>
       <c r="F31" t="n">
-        <v>278.4975841378028</v>
+        <v>278.4975841378027</v>
       </c>
       <c r="G31" t="n">
-        <v>189.5469707864134</v>
+        <v>189.5469707864133</v>
       </c>
       <c r="H31" t="n">
-        <v>115.7839494803384</v>
+        <v>115.7839494803383</v>
       </c>
       <c r="I31" t="n">
         <v>74.00636096722685</v>
       </c>
       <c r="J31" t="n">
-        <v>141.7906676360152</v>
+        <v>141.7906676360153</v>
       </c>
       <c r="K31" t="n">
-        <v>332.8610105007749</v>
+        <v>332.8610105007751</v>
       </c>
       <c r="L31" t="n">
-        <v>611.0876966026049</v>
+        <v>611.0876966026053</v>
       </c>
       <c r="M31" t="n">
-        <v>910.5895632518486</v>
+        <v>910.589563251849</v>
       </c>
       <c r="N31" t="n">
-        <v>1210.258449767241</v>
+        <v>1210.258449767242</v>
       </c>
       <c r="O31" t="n">
         <v>1476.986753756662</v>
@@ -6646,25 +6646,25 @@
         <v>1736.857779665479</v>
       </c>
       <c r="S31" t="n">
-        <v>1610.81283945667</v>
+        <v>1610.812839456671</v>
       </c>
       <c r="T31" t="n">
-        <v>1465.186349595921</v>
+        <v>1465.186349595922</v>
       </c>
       <c r="U31" t="n">
-        <v>1255.590311998882</v>
+        <v>1255.590311998883</v>
       </c>
       <c r="V31" t="n">
-        <v>1175.798298554667</v>
+        <v>1080.45618803205</v>
       </c>
       <c r="W31" t="n">
-        <v>965.9314927567602</v>
+        <v>870.5893822341432</v>
       </c>
       <c r="X31" t="n">
-        <v>817.4923060977966</v>
+        <v>817.492306097796</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.25009119332</v>
+        <v>676.2500911933197</v>
       </c>
     </row>
     <row r="32">
@@ -6677,73 +6677,73 @@
         <v>1855.190040748814</v>
       </c>
       <c r="C32" t="n">
-        <v>1569.777003451412</v>
+        <v>1569.777003451411</v>
       </c>
       <c r="D32" t="n">
-        <v>1295.06078448767</v>
+        <v>1295.060784487669</v>
       </c>
       <c r="E32" t="n">
-        <v>992.8220115324357</v>
+        <v>992.8220115324343</v>
       </c>
       <c r="F32" t="n">
-        <v>665.3855863858369</v>
+        <v>665.3855863858357</v>
       </c>
       <c r="G32" t="n">
-        <v>332.0832975047281</v>
+        <v>332.0832975047274</v>
       </c>
       <c r="H32" t="n">
-        <v>99.82673250881307</v>
+        <v>99.82673250881304</v>
       </c>
       <c r="I32" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J32" t="n">
-        <v>281.0547462211582</v>
+        <v>113.6490972008052</v>
       </c>
       <c r="K32" t="n">
-        <v>713.9461951442535</v>
+        <v>546.5405461239004</v>
       </c>
       <c r="L32" t="n">
-        <v>1303.262943955947</v>
+        <v>1135.857294935594</v>
       </c>
       <c r="M32" t="n">
-        <v>1975.597921663011</v>
+        <v>1808.192272642657</v>
       </c>
       <c r="N32" t="n">
-        <v>2644.17998466814</v>
+        <v>2476.774335647786</v>
       </c>
       <c r="O32" t="n">
-        <v>3230.315430178002</v>
+        <v>3062.909781157648</v>
       </c>
       <c r="P32" t="n">
-        <v>3374.313368200567</v>
+        <v>3525.488440269982</v>
       </c>
       <c r="Q32" t="n">
-        <v>3639.107098300803</v>
+        <v>3639.107098300802</v>
       </c>
       <c r="R32" t="n">
-        <v>3639.107098300803</v>
+        <v>3639.107098300802</v>
       </c>
       <c r="S32" t="n">
-        <v>3571.819692134718</v>
+        <v>3571.819692134717</v>
       </c>
       <c r="T32" t="n">
-        <v>3441.602458001152</v>
+        <v>3441.60245800115</v>
       </c>
       <c r="U32" t="n">
-        <v>3271.479115448468</v>
+        <v>3271.479115448466</v>
       </c>
       <c r="V32" t="n">
-        <v>3023.965707747906</v>
+        <v>3023.965707747905</v>
       </c>
       <c r="W32" t="n">
-        <v>2754.746532120801</v>
+        <v>2754.7465321208</v>
       </c>
       <c r="X32" t="n">
-        <v>2464.83025350273</v>
+        <v>2464.830253502729</v>
       </c>
       <c r="Y32" t="n">
-        <v>2158.240401169927</v>
+        <v>2158.240401169926</v>
       </c>
     </row>
     <row r="33">
@@ -6771,31 +6771,31 @@
         <v>214.0356582988545</v>
       </c>
       <c r="H33" t="n">
-        <v>114.3392621594921</v>
+        <v>114.339262159492</v>
       </c>
       <c r="I33" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J33" t="n">
-        <v>203.1344985671975</v>
+        <v>78.30437358019272</v>
       </c>
       <c r="K33" t="n">
-        <v>552.5482813313133</v>
+        <v>165.8975717018557</v>
       </c>
       <c r="L33" t="n">
-        <v>1083.782628883513</v>
+        <v>697.131919254055</v>
       </c>
       <c r="M33" t="n">
-        <v>1524.811673158918</v>
+        <v>1369.036567782363</v>
       </c>
       <c r="N33" t="n">
-        <v>1755.65770120643</v>
+        <v>1599.882595829875</v>
       </c>
       <c r="O33" t="n">
-        <v>1944.616922238928</v>
+        <v>2152.593437097419</v>
       </c>
       <c r="P33" t="n">
-        <v>2392.218430766964</v>
+        <v>2600.194945625454</v>
       </c>
       <c r="Q33" t="n">
         <v>2638.730416165795</v>
@@ -6832,34 +6832,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>544.9339637732359</v>
+        <v>544.9339637732362</v>
       </c>
       <c r="C34" t="n">
-        <v>459.547260488338</v>
+        <v>459.5472604883383</v>
       </c>
       <c r="D34" t="n">
-        <v>392.9801007190113</v>
+        <v>392.9801007190117</v>
       </c>
       <c r="E34" t="n">
-        <v>328.6164867796272</v>
+        <v>328.6164867796276</v>
       </c>
       <c r="F34" t="n">
-        <v>265.2760189247259</v>
+        <v>265.2760189247263</v>
       </c>
       <c r="G34" t="n">
-        <v>180.3245209772917</v>
+        <v>180.3245209772922</v>
       </c>
       <c r="H34" t="n">
         <v>110.5606150751723</v>
       </c>
       <c r="I34" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J34" t="n">
-        <v>144.4859816422213</v>
+        <v>144.4859816422211</v>
       </c>
       <c r="K34" t="n">
-        <v>339.4758575143976</v>
+        <v>339.4758575143974</v>
       </c>
       <c r="L34" t="n">
         <v>621.622076623644</v>
@@ -6871,7 +6871,7 @@
         <v>1228.631895803114</v>
       </c>
       <c r="O34" t="n">
-        <v>1499.27973279995</v>
+        <v>1499.279732799951</v>
       </c>
       <c r="P34" t="n">
         <v>1719.163533693122</v>
@@ -6901,7 +6901,7 @@
         <v>780.2760484609879</v>
       </c>
       <c r="Y34" t="n">
-        <v>643.0329489604666</v>
+        <v>643.0329489604669</v>
       </c>
     </row>
     <row r="35">
@@ -6920,52 +6920,52 @@
         <v>1295.06078448767</v>
       </c>
       <c r="E35" t="n">
-        <v>992.8220115324348</v>
+        <v>992.8220115324345</v>
       </c>
       <c r="F35" t="n">
-        <v>665.3855863858362</v>
+        <v>665.3855863858359</v>
       </c>
       <c r="G35" t="n">
-        <v>332.0832975047274</v>
+        <v>332.0832975047272</v>
       </c>
       <c r="H35" t="n">
         <v>99.82673250881307</v>
       </c>
       <c r="I35" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J35" t="n">
-        <v>167.3040473146235</v>
+        <v>113.6490972008052</v>
       </c>
       <c r="K35" t="n">
-        <v>600.1954962377188</v>
+        <v>546.5405461239004</v>
       </c>
       <c r="L35" t="n">
-        <v>1189.512245049413</v>
+        <v>1135.857294935594</v>
       </c>
       <c r="M35" t="n">
-        <v>1861.847222756476</v>
+        <v>1808.192272642657</v>
       </c>
       <c r="N35" t="n">
-        <v>2530.429285761605</v>
+        <v>2320.237445008298</v>
       </c>
       <c r="O35" t="n">
-        <v>3116.564731271467</v>
+        <v>2906.37289051816</v>
       </c>
       <c r="P35" t="n">
-        <v>3579.1433903838</v>
+        <v>3368.951549630493</v>
       </c>
       <c r="Q35" t="n">
-        <v>3639.107098300803</v>
+        <v>3639.107098300802</v>
       </c>
       <c r="R35" t="n">
-        <v>3639.107098300803</v>
+        <v>3639.107098300802</v>
       </c>
       <c r="S35" t="n">
-        <v>3571.819692134718</v>
+        <v>3571.819692134717</v>
       </c>
       <c r="T35" t="n">
-        <v>3441.602458001151</v>
+        <v>3441.60245800115</v>
       </c>
       <c r="U35" t="n">
         <v>3271.479115448467</v>
@@ -7008,25 +7008,25 @@
         <v>214.0356582988545</v>
       </c>
       <c r="H36" t="n">
-        <v>114.3392621594921</v>
+        <v>114.339262159492</v>
       </c>
       <c r="I36" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J36" t="n">
-        <v>203.1344985671975</v>
+        <v>78.30437358019272</v>
       </c>
       <c r="K36" t="n">
-        <v>552.5482813313133</v>
+        <v>427.7181563443085</v>
       </c>
       <c r="L36" t="n">
-        <v>1083.782628883513</v>
+        <v>591.8205620460833</v>
       </c>
       <c r="M36" t="n">
-        <v>1524.811673158918</v>
+        <v>1263.725210574392</v>
       </c>
       <c r="N36" t="n">
-        <v>1755.65770120643</v>
+        <v>1494.571238621903</v>
       </c>
       <c r="O36" t="n">
         <v>1944.616922238928</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>544.9339637732361</v>
+        <v>544.933963773236</v>
       </c>
       <c r="C37" t="n">
-        <v>459.5472604883382</v>
+        <v>459.5472604883381</v>
       </c>
       <c r="D37" t="n">
-        <v>392.9801007190115</v>
+        <v>392.9801007190113</v>
       </c>
       <c r="E37" t="n">
-        <v>328.6164867796275</v>
+        <v>328.6164867796272</v>
       </c>
       <c r="F37" t="n">
-        <v>265.2760189247261</v>
+        <v>265.2760189247259</v>
       </c>
       <c r="G37" t="n">
-        <v>180.324520977292</v>
+        <v>180.3245209772917</v>
       </c>
       <c r="H37" t="n">
         <v>110.5606150751723</v>
       </c>
       <c r="I37" t="n">
-        <v>72.78214196601606</v>
+        <v>72.78214196601604</v>
       </c>
       <c r="J37" t="n">
         <v>144.4859816422211</v>
       </c>
       <c r="K37" t="n">
-        <v>339.4758575143974</v>
+        <v>339.4758575143973</v>
       </c>
       <c r="L37" t="n">
-        <v>621.622076623644</v>
+        <v>621.6220766236439</v>
       </c>
       <c r="M37" t="n">
-        <v>925.043476280304</v>
+        <v>925.0434762803042</v>
       </c>
       <c r="N37" t="n">
         <v>1228.631895803114</v>
@@ -7114,7 +7114,7 @@
         <v>1719.163533693122</v>
       </c>
       <c r="Q37" t="n">
-        <v>1813.157237851489</v>
+        <v>1813.157237851488</v>
       </c>
       <c r="R37" t="n">
         <v>1770.988940127556</v>
@@ -7132,13 +7132,13 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W37" t="n">
-        <v>924.7161197159962</v>
+        <v>924.7161197159961</v>
       </c>
       <c r="X37" t="n">
-        <v>780.2760484609879</v>
+        <v>780.2760484609878</v>
       </c>
       <c r="Y37" t="n">
-        <v>643.0329489604668</v>
+        <v>643.0329489604667</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1855.190040748812</v>
+        <v>1855.190040748815</v>
       </c>
       <c r="C38" t="n">
-        <v>1569.777003451409</v>
+        <v>1569.777003451412</v>
       </c>
       <c r="D38" t="n">
-        <v>1295.060784487668</v>
+        <v>1295.060784487671</v>
       </c>
       <c r="E38" t="n">
-        <v>992.8220115324328</v>
+        <v>992.8220115324355</v>
       </c>
       <c r="F38" t="n">
-        <v>665.3855863858344</v>
+        <v>665.3855863858369</v>
       </c>
       <c r="G38" t="n">
-        <v>332.0832975047274</v>
+        <v>332.0832975047281</v>
       </c>
       <c r="H38" t="n">
-        <v>99.82673250881297</v>
+        <v>99.82673250881308</v>
       </c>
       <c r="I38" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J38" t="n">
-        <v>113.6490972008052</v>
+        <v>281.0547462211582</v>
       </c>
       <c r="K38" t="n">
-        <v>546.5405461239004</v>
+        <v>713.9461951442535</v>
       </c>
       <c r="L38" t="n">
-        <v>979.3204042961063</v>
+        <v>1303.262943955947</v>
       </c>
       <c r="M38" t="n">
-        <v>1651.65538200317</v>
+        <v>1975.597921663011</v>
       </c>
       <c r="N38" t="n">
-        <v>2320.237445008298</v>
+        <v>2644.17998466814</v>
       </c>
       <c r="O38" t="n">
-        <v>2906.372890518161</v>
+        <v>3230.315430178002</v>
       </c>
       <c r="P38" t="n">
-        <v>3368.951549630494</v>
+        <v>3564.612950517287</v>
       </c>
       <c r="Q38" t="n">
-        <v>3639.107098300802</v>
+        <v>3624.57665843429</v>
       </c>
       <c r="R38" t="n">
-        <v>3639.107098300802</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="S38" t="n">
-        <v>3571.819692134715</v>
+        <v>3571.819692134717</v>
       </c>
       <c r="T38" t="n">
-        <v>3441.602458001149</v>
+        <v>3441.602458001151</v>
       </c>
       <c r="U38" t="n">
-        <v>3271.479115448465</v>
+        <v>3271.479115448468</v>
       </c>
       <c r="V38" t="n">
-        <v>3023.965707747903</v>
+        <v>3023.965707747906</v>
       </c>
       <c r="W38" t="n">
-        <v>2754.746532120798</v>
+        <v>2754.746532120801</v>
       </c>
       <c r="X38" t="n">
-        <v>2464.830253502727</v>
+        <v>2464.830253502731</v>
       </c>
       <c r="Y38" t="n">
-        <v>2158.240401169925</v>
+        <v>2158.240401169928</v>
       </c>
     </row>
     <row r="39">
@@ -7245,10 +7245,10 @@
         <v>214.0356582988545</v>
       </c>
       <c r="H39" t="n">
-        <v>114.339262159492</v>
+        <v>114.3392621594921</v>
       </c>
       <c r="I39" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J39" t="n">
         <v>203.1344985671975</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>544.9339637732356</v>
+        <v>544.9339637732362</v>
       </c>
       <c r="C40" t="n">
-        <v>459.5472604883378</v>
+        <v>459.5472604883383</v>
       </c>
       <c r="D40" t="n">
-        <v>392.9801007190112</v>
+        <v>392.9801007190116</v>
       </c>
       <c r="E40" t="n">
-        <v>328.6164867796272</v>
+        <v>328.6164867796275</v>
       </c>
       <c r="F40" t="n">
-        <v>265.2760189247259</v>
+        <v>265.2760189247261</v>
       </c>
       <c r="G40" t="n">
-        <v>180.3245209772919</v>
+        <v>180.324520977292</v>
       </c>
       <c r="H40" t="n">
-        <v>110.5606150751722</v>
+        <v>110.5606150751723</v>
       </c>
       <c r="I40" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J40" t="n">
         <v>144.4859816422211</v>
       </c>
       <c r="K40" t="n">
-        <v>339.4758575143975</v>
+        <v>339.4758575143974</v>
       </c>
       <c r="L40" t="n">
-        <v>621.6220766236441</v>
+        <v>621.622076623644</v>
       </c>
       <c r="M40" t="n">
-        <v>925.0434762803045</v>
+        <v>925.0434762803043</v>
       </c>
       <c r="N40" t="n">
         <v>1228.631895803114</v>
       </c>
       <c r="O40" t="n">
-        <v>1499.279732799949</v>
+        <v>1499.279732799951</v>
       </c>
       <c r="P40" t="n">
-        <v>1719.163533693121</v>
+        <v>1719.163533693123</v>
       </c>
       <c r="Q40" t="n">
-        <v>1813.157237851487</v>
+        <v>1813.157237851489</v>
       </c>
       <c r="R40" t="n">
-        <v>1770.988940127555</v>
+        <v>1770.988940127556</v>
       </c>
       <c r="S40" t="n">
-        <v>1648.943115322702</v>
+        <v>1648.943115322703</v>
       </c>
       <c r="T40" t="n">
-        <v>1507.315740865908</v>
+        <v>1507.315740865909</v>
       </c>
       <c r="U40" t="n">
-        <v>1301.718818672825</v>
+        <v>1301.718818672826</v>
       </c>
       <c r="V40" t="n">
-        <v>1130.583810109947</v>
+        <v>1130.583810109948</v>
       </c>
       <c r="W40" t="n">
-        <v>924.7161197159954</v>
+        <v>924.7161197159963</v>
       </c>
       <c r="X40" t="n">
-        <v>780.2760484609872</v>
+        <v>780.276048460988</v>
       </c>
       <c r="Y40" t="n">
-        <v>643.0329489604662</v>
+        <v>643.0329489604669</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1569.777003451411</v>
       </c>
       <c r="D41" t="n">
-        <v>1295.060784487669</v>
+        <v>1295.06078448767</v>
       </c>
       <c r="E41" t="n">
-        <v>992.8220115324343</v>
+        <v>992.822011532435</v>
       </c>
       <c r="F41" t="n">
-        <v>665.3855863858357</v>
+        <v>665.3855863858365</v>
       </c>
       <c r="G41" t="n">
         <v>332.0832975047279</v>
@@ -7406,55 +7406,55 @@
         <v>99.82673250881304</v>
       </c>
       <c r="I41" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J41" t="n">
-        <v>152.7736074481096</v>
+        <v>281.0547462211582</v>
       </c>
       <c r="K41" t="n">
-        <v>585.6650563712049</v>
+        <v>393.0422366988004</v>
       </c>
       <c r="L41" t="n">
-        <v>1174.981805182899</v>
+        <v>982.3589855104941</v>
       </c>
       <c r="M41" t="n">
-        <v>1847.316782889962</v>
+        <v>1654.693963217557</v>
       </c>
       <c r="N41" t="n">
-        <v>2515.898845895091</v>
+        <v>2323.276026222686</v>
       </c>
       <c r="O41" t="n">
-        <v>3102.034291404953</v>
+        <v>2909.411471732548</v>
       </c>
       <c r="P41" t="n">
-        <v>3564.612950517286</v>
+        <v>3368.951549630494</v>
       </c>
       <c r="Q41" t="n">
-        <v>3624.576658434289</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="R41" t="n">
-        <v>3639.107098300802</v>
+        <v>3639.107098300803</v>
       </c>
       <c r="S41" t="n">
         <v>3571.819692134717</v>
       </c>
       <c r="T41" t="n">
-        <v>3441.60245800115</v>
+        <v>3441.602458001151</v>
       </c>
       <c r="U41" t="n">
         <v>3271.479115448467</v>
       </c>
       <c r="V41" t="n">
-        <v>3023.965707747905</v>
+        <v>3023.965707747906</v>
       </c>
       <c r="W41" t="n">
-        <v>2754.7465321208</v>
+        <v>2754.746532120801</v>
       </c>
       <c r="X41" t="n">
-        <v>2464.830253502729</v>
+        <v>2464.83025350273</v>
       </c>
       <c r="Y41" t="n">
-        <v>2158.240401169926</v>
+        <v>2158.240401169927</v>
       </c>
     </row>
     <row r="42">
@@ -7482,10 +7482,10 @@
         <v>214.0356582988545</v>
       </c>
       <c r="H42" t="n">
-        <v>114.339262159492</v>
+        <v>114.3392621594921</v>
       </c>
       <c r="I42" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J42" t="n">
         <v>203.1344985671975</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>544.933963773236</v>
+        <v>544.9339637732362</v>
       </c>
       <c r="C43" t="n">
-        <v>459.5472604883381</v>
+        <v>459.5472604883383</v>
       </c>
       <c r="D43" t="n">
-        <v>392.9801007190114</v>
+        <v>392.9801007190116</v>
       </c>
       <c r="E43" t="n">
-        <v>328.6164867796273</v>
+        <v>328.6164867796276</v>
       </c>
       <c r="F43" t="n">
-        <v>265.276018924726</v>
+        <v>265.2760189247263</v>
       </c>
       <c r="G43" t="n">
-        <v>180.3245209772919</v>
+        <v>180.3245209772922</v>
       </c>
       <c r="H43" t="n">
-        <v>110.5606150751722</v>
+        <v>110.5606150751723</v>
       </c>
       <c r="I43" t="n">
-        <v>72.78214196601604</v>
+        <v>72.78214196601606</v>
       </c>
       <c r="J43" t="n">
-        <v>144.485981642221</v>
+        <v>144.4859816422211</v>
       </c>
       <c r="K43" t="n">
         <v>339.4758575143974</v>
@@ -7582,13 +7582,13 @@
         <v>1228.631895803114</v>
       </c>
       <c r="O43" t="n">
-        <v>1499.27973279995</v>
+        <v>1499.279732799951</v>
       </c>
       <c r="P43" t="n">
-        <v>1719.163533693122</v>
+        <v>1719.163533693123</v>
       </c>
       <c r="Q43" t="n">
-        <v>1813.157237851488</v>
+        <v>1813.157237851489</v>
       </c>
       <c r="R43" t="n">
         <v>1770.988940127556</v>
@@ -7612,7 +7612,7 @@
         <v>780.2760484609881</v>
       </c>
       <c r="Y43" t="n">
-        <v>643.0329489604667</v>
+        <v>643.0329489604669</v>
       </c>
     </row>
     <row r="44">
@@ -7622,25 +7622,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1855.190040748815</v>
+        <v>1855.190040748813</v>
       </c>
       <c r="C44" t="n">
-        <v>1569.777003451412</v>
+        <v>1569.777003451411</v>
       </c>
       <c r="D44" t="n">
-        <v>1295.060784487671</v>
+        <v>1295.060784487669</v>
       </c>
       <c r="E44" t="n">
-        <v>992.8220115324357</v>
+        <v>992.8220115324342</v>
       </c>
       <c r="F44" t="n">
-        <v>665.3855863858371</v>
+        <v>665.3855863858357</v>
       </c>
       <c r="G44" t="n">
-        <v>332.0832975047283</v>
+        <v>332.0832975047274</v>
       </c>
       <c r="H44" t="n">
-        <v>99.82673250881308</v>
+        <v>99.82673250881302</v>
       </c>
       <c r="I44" t="n">
         <v>72.78214196601606</v>
@@ -7679,19 +7679,19 @@
         <v>3441.602458001151</v>
       </c>
       <c r="U44" t="n">
-        <v>3271.479115448468</v>
+        <v>3271.479115448466</v>
       </c>
       <c r="V44" t="n">
-        <v>3023.965707747907</v>
+        <v>3023.965707747905</v>
       </c>
       <c r="W44" t="n">
-        <v>2754.746532120801</v>
+        <v>2754.7465321208</v>
       </c>
       <c r="X44" t="n">
-        <v>2464.830253502731</v>
+        <v>2464.830253502729</v>
       </c>
       <c r="Y44" t="n">
-        <v>2158.240401169928</v>
+        <v>2158.240401169926</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>203.1344985671975</v>
       </c>
       <c r="K45" t="n">
-        <v>493.3565002157455</v>
+        <v>552.5482813313133</v>
       </c>
       <c r="L45" t="n">
-        <v>657.4589059175203</v>
+        <v>1083.782628883513</v>
       </c>
       <c r="M45" t="n">
-        <v>868.3155413333287</v>
+        <v>1294.639264299321</v>
       </c>
       <c r="N45" t="n">
-        <v>1573.710519980958</v>
+        <v>1525.485292346833</v>
       </c>
       <c r="O45" t="n">
-        <v>2152.593437097419</v>
+        <v>1944.616922238928</v>
       </c>
       <c r="P45" t="n">
-        <v>2600.194945625454</v>
+        <v>2392.218430766964</v>
       </c>
       <c r="Q45" t="n">
         <v>2638.730416165795</v>
@@ -7780,16 +7780,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>544.9339637732364</v>
+        <v>544.9339637732361</v>
       </c>
       <c r="C46" t="n">
-        <v>459.5472604883385</v>
+        <v>459.5472604883383</v>
       </c>
       <c r="D46" t="n">
-        <v>392.9801007190118</v>
+        <v>392.9801007190116</v>
       </c>
       <c r="E46" t="n">
-        <v>328.6164867796277</v>
+        <v>328.6164867796276</v>
       </c>
       <c r="F46" t="n">
         <v>265.2760189247263</v>
@@ -7807,13 +7807,13 @@
         <v>144.4859816422211</v>
       </c>
       <c r="K46" t="n">
-        <v>339.4758575143973</v>
+        <v>339.4758575143975</v>
       </c>
       <c r="L46" t="n">
-        <v>621.6220766236439</v>
+        <v>621.6220766236438</v>
       </c>
       <c r="M46" t="n">
-        <v>925.0434762803042</v>
+        <v>925.043476280304</v>
       </c>
       <c r="N46" t="n">
         <v>1228.631895803114</v>
@@ -7825,16 +7825,16 @@
         <v>1719.163533693122</v>
       </c>
       <c r="Q46" t="n">
-        <v>1813.157237851489</v>
+        <v>1813.157237851488</v>
       </c>
       <c r="R46" t="n">
         <v>1770.988940127556</v>
       </c>
       <c r="S46" t="n">
-        <v>1648.943115322704</v>
+        <v>1648.943115322703</v>
       </c>
       <c r="T46" t="n">
-        <v>1507.31574086591</v>
+        <v>1507.315740865909</v>
       </c>
       <c r="U46" t="n">
         <v>1301.718818672826</v>
@@ -7843,13 +7843,13 @@
         <v>1130.583810109948</v>
       </c>
       <c r="W46" t="n">
-        <v>924.7161197159969</v>
+        <v>924.7161197159962</v>
       </c>
       <c r="X46" t="n">
-        <v>780.2760484609886</v>
+        <v>780.276048460988</v>
       </c>
       <c r="Y46" t="n">
-        <v>643.0329489604671</v>
+        <v>643.0329489604667</v>
       </c>
     </row>
   </sheetData>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>235.3925885601156</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>251.0691524851223</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>245.6489707424078</v>
+        <v>245.0306783175538</v>
       </c>
       <c r="N8" t="n">
-        <v>244.097508686872</v>
+        <v>244.715801111726</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>245.4009489368218</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>246.5357332704046</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,19 +8535,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>153.2388248701553</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>157.4367714371534</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>146.6444495984684</v>
       </c>
       <c r="O9" t="n">
-        <v>157.8989819595795</v>
+        <v>157.2806895347256</v>
       </c>
       <c r="P9" t="n">
-        <v>149.2771449294653</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>155.2845116011566</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>54.1969193068872</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8708,7 +8708,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>54.19691930688684</v>
       </c>
       <c r="R11" t="n">
         <v>51.03920788660565</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,19 +8775,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>232.4973826864617</v>
+        <v>13.923780782374</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>122.2988469677415</v>
+        <v>107.6216349813638</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -8948,7 +8948,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>51.03920788660565</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9009,16 +9009,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>209.4754087131915</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>232.4973826864619</v>
       </c>
       <c r="P15" t="n">
         <v>318.4627686399372</v>
@@ -9170,10 +9170,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>107.6216349813647</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>95.45502590051649</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9246,22 +9246,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>183.5242993484119</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>134.3266173161789</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>324.1454125711647</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>107.6216349813647</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9419,10 +9419,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>54.1969193068873</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>51.03920788660565</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>232.4973826864619</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>174.80338648599</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>39.51970732051042</v>
+        <v>39.51970732050953</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9714,28 +9714,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>232.4973826864619</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>292.0263283885059</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>324.1454125711647</v>
@@ -9890,10 +9890,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>55.17667928207734</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>114.7895769425727</v>
       </c>
       <c r="R26" t="n">
         <v>51.03920788660565</v>
@@ -9960,13 +9960,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>232.4973826864617</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>232.4973826864619</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10115,10 +10115,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>136.361973674668</v>
       </c>
       <c r="M29" t="n">
-        <v>168.2142926170501</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>232.4973826864617</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>367.4258790252985</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10364,10 +10364,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>206.8990123062958</v>
+        <v>54.19691930688592</v>
       </c>
       <c r="R32" t="n">
         <v>51.03920788660565</v>
@@ -10425,28 +10425,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>232.4973826864617</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>367.4258790252985</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>54.1969193068872</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>279.2288530589653</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>51.03920788660565</v>
@@ -10662,22 +10662,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>232.4973826864617</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>263.7236995803299</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10820,13 +10820,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>259.5431431974324</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>449.5135334928325</v>
@@ -10838,13 +10838,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>192.2218003199186</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.03920788660565</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>39.51970732050953</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,13 +11075,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>318.7294342175558</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>51.03920788660565</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>204.6755591180658</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>232.4973826864619</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.0487960435703</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>390.1910001218012</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>365.7920399244031</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>92.80308386403773</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,10 +23309,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>194.9440010188993</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>234.4510483538255</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>336.6382074735231</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>163.1469345620271</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>150.5617754787176</v>
+        <v>150.5617754787175</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>131.930427398302</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.7489170266589</v>
       </c>
       <c r="F13" t="n">
-        <v>128.736002403021</v>
+        <v>128.7360024030209</v>
       </c>
       <c r="G13" t="n">
-        <v>150.1309221946284</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>135.0952060697672</v>
+        <v>135.0952060697671</v>
       </c>
       <c r="I13" t="n">
         <v>103.4296276047333</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>107.775553973362</v>
+        <v>107.7755539733619</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>186.854305783473</v>
       </c>
       <c r="T13" t="n">
-        <v>206.2400399388946</v>
+        <v>206.2400399388945</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,13 +23476,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>227.1670643578274</v>
+        <v>91.91127090604769</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>201.8996077321846</v>
+        <v>201.8996077321845</v>
       </c>
     </row>
     <row r="14">
@@ -23495,13 +23495,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>348.5878461510973</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>365.2453244523516</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23543,25 +23543,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>60.69186989263591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>194.9440010188993</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>311.0672128502246</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>330.7790293987076</v>
       </c>
       <c r="Y14" t="n">
-        <v>369.5528930361434</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>163.1469345620271</v>
+        <v>163.146934562027</v>
       </c>
       <c r="C16" t="n">
-        <v>150.5617754787176</v>
+        <v>150.5617754787175</v>
       </c>
       <c r="D16" t="n">
-        <v>131.9304273983021</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>129.7489170266589</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>87.00056265241635</v>
+        <v>128.7360024030209</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.775553973362</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>186.8543057834731</v>
+        <v>186.854305783473</v>
       </c>
       <c r="T16" t="n">
         <v>206.2400399388945</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>269.5698921978213</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>58.14956644989567</v>
       </c>
       <c r="X16" t="n">
-        <v>209.0246097691269</v>
+        <v>209.0246097691268</v>
       </c>
       <c r="Y16" t="n">
-        <v>201.8996077321846</v>
+        <v>201.8996077321845</v>
       </c>
     </row>
     <row r="17">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>88.49196050196466</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.896728915426358</v>
+        <v>69.86061242154912</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>24.52807699584098</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24895,13 +24895,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>94.38868941739068</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>94.38868941739028</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26317,40 +26317,40 @@
         <v>266264.8100830375</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.575205892</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="E2" t="n">
+        <v>228937.4200113248</v>
+      </c>
+      <c r="F2" t="n">
         <v>228937.4200113246</v>
       </c>
-      <c r="F2" t="n">
-        <v>228937.4200113248</v>
-      </c>
       <c r="G2" t="n">
+        <v>266838.5752058922</v>
+      </c>
+      <c r="H2" t="n">
         <v>266838.5752058921</v>
       </c>
-      <c r="H2" t="n">
-        <v>266838.5752058922</v>
-      </c>
       <c r="I2" t="n">
-        <v>266838.5752058923</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="J2" t="n">
-        <v>266102.3434284363</v>
+        <v>266102.3434284362</v>
       </c>
       <c r="K2" t="n">
-        <v>266102.3434284363</v>
+        <v>266102.3434284362</v>
       </c>
       <c r="L2" t="n">
         <v>266838.5752058922</v>
       </c>
       <c r="M2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="N2" t="n">
         <v>266838.5752058923</v>
       </c>
       <c r="O2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058921</v>
       </c>
       <c r="P2" t="n">
         <v>266838.5752058922</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>52823.15138133494</v>
+        <v>52823.1513813349</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>14184.60655040556</v>
+        <v>14184.60655040569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>55990.45078126754</v>
+        <v>55990.45078126748</v>
       </c>
       <c r="M3" t="n">
         <v>222906.5079315166</v>
       </c>
       <c r="N3" t="n">
-        <v>5.684341886080801e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>10180.73709599555</v>
+        <v>10180.73709599573</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,13 +26421,13 @@
         <v>409397.0283363865</v>
       </c>
       <c r="D4" t="n">
-        <v>408123.0807897232</v>
+        <v>408123.0807897231</v>
       </c>
       <c r="E4" t="n">
-        <v>103071.6234956366</v>
+        <v>103071.6234956367</v>
       </c>
       <c r="F4" t="n">
-        <v>103071.6234956366</v>
+        <v>103071.6234956367</v>
       </c>
       <c r="G4" t="n">
         <v>169796.8856752705</v>
@@ -26442,7 +26442,7 @@
         <v>167250.1970223626</v>
       </c>
       <c r="K4" t="n">
-        <v>167250.1970223625</v>
+        <v>167250.1970223626</v>
       </c>
       <c r="L4" t="n">
         <v>169796.8856752704</v>
@@ -26451,13 +26451,13 @@
         <v>169796.8856752704</v>
       </c>
       <c r="N4" t="n">
+        <v>169796.8856752704</v>
+      </c>
+      <c r="O4" t="n">
         <v>169796.8856752705</v>
       </c>
-      <c r="O4" t="n">
-        <v>169796.8856752704</v>
-      </c>
       <c r="P4" t="n">
-        <v>169796.8856752704</v>
+        <v>169796.8856752705</v>
       </c>
     </row>
     <row r="5">
@@ -26488,28 +26488,28 @@
         <v>76472.93125992033</v>
       </c>
       <c r="I5" t="n">
-        <v>76472.93125992033</v>
+        <v>76472.93125992031</v>
       </c>
       <c r="J5" t="n">
-        <v>77070.49808427435</v>
+        <v>77070.49808427437</v>
       </c>
       <c r="K5" t="n">
         <v>77070.49808427435</v>
       </c>
       <c r="L5" t="n">
+        <v>76472.93125992031</v>
+      </c>
+      <c r="M5" t="n">
+        <v>76472.9312599203</v>
+      </c>
+      <c r="N5" t="n">
+        <v>76472.93125992031</v>
+      </c>
+      <c r="O5" t="n">
         <v>76472.93125992033</v>
       </c>
-      <c r="M5" t="n">
+      <c r="P5" t="n">
         <v>76472.93125992033</v>
-      </c>
-      <c r="N5" t="n">
-        <v>76472.93125992033</v>
-      </c>
-      <c r="O5" t="n">
-        <v>76472.93125992031</v>
-      </c>
-      <c r="P5" t="n">
-        <v>76472.93125992031</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-176759.818253349</v>
+        <v>-176764.2318312171</v>
       </c>
       <c r="C6" t="n">
-        <v>-176759.818253349</v>
+        <v>-176764.2318312172</v>
       </c>
       <c r="D6" t="n">
-        <v>-180596.0013790778</v>
+        <v>-180596.0013790776</v>
       </c>
       <c r="E6" t="n">
-        <v>-748969.6876094643</v>
+        <v>-749261.2349571146</v>
       </c>
       <c r="F6" t="n">
-        <v>54943.85214761467</v>
+        <v>54652.30479996392</v>
       </c>
       <c r="G6" t="n">
-        <v>-32254.39311063357</v>
+        <v>-32254.39311063348</v>
       </c>
       <c r="H6" t="n">
-        <v>20568.75827070145</v>
+        <v>20568.75827070136</v>
       </c>
       <c r="I6" t="n">
-        <v>20568.75827070151</v>
+        <v>20568.75827070138</v>
       </c>
       <c r="J6" t="n">
-        <v>7597.041771393851</v>
+        <v>7591.378450028474</v>
       </c>
       <c r="K6" t="n">
-        <v>21781.64832179941</v>
+        <v>21775.98500043425</v>
       </c>
       <c r="L6" t="n">
-        <v>-35421.69251056609</v>
+        <v>-35421.69251056599</v>
       </c>
       <c r="M6" t="n">
-        <v>-202337.7496608152</v>
+        <v>-202337.7496608151</v>
       </c>
       <c r="N6" t="n">
-        <v>20568.75827070139</v>
+        <v>20568.75827070152</v>
       </c>
       <c r="O6" t="n">
-        <v>10388.02117470595</v>
+        <v>10388.02117470562</v>
       </c>
       <c r="P6" t="n">
-        <v>20568.75827070147</v>
+        <v>20568.75827070142</v>
       </c>
     </row>
   </sheetData>
@@ -26692,13 +26692,13 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="F2" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="G2" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="H2" t="n">
         <v>82.71398484657892</v>
@@ -26707,25 +26707,25 @@
         <v>82.71398484657892</v>
       </c>
       <c r="J2" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="K2" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="L2" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="M2" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="N2" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="O2" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="P2" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
     </row>
     <row r="3">
@@ -26796,10 +26796,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="F4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="G4" t="n">
         <v>909.7767745752008</v>
@@ -26808,25 +26808,25 @@
         <v>909.7767745752008</v>
       </c>
       <c r="I4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752005</v>
       </c>
       <c r="J4" t="n">
-        <v>925.0795120903357</v>
+        <v>925.0795120903356</v>
       </c>
       <c r="K4" t="n">
-        <v>925.0795120903357</v>
+        <v>925.0795120903356</v>
       </c>
       <c r="L4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752004</v>
       </c>
       <c r="M4" t="n">
-        <v>909.7767745752008</v>
+        <v>909.7767745752004</v>
       </c>
       <c r="N4" t="n">
-        <v>909.7767745752005</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="O4" t="n">
-        <v>909.7767745752005</v>
+        <v>909.7767745752006</v>
       </c>
       <c r="P4" t="n">
         <v>909.7767745752006</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>66.02893922666868</v>
+        <v>66.02893922666863</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>12.7259213699945</v>
+        <v>12.72592136999462</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>69.98806347658443</v>
+        <v>69.98806347658434</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>7.105427357601002e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.72592136999444</v>
+        <v>12.72592136999467</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="E4" t="n">
-        <v>894.4740370600657</v>
+        <v>894.4740370600656</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.30273751513494</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>894.4740370600657</v>
+        <v>894.4740370600656</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>66.02893922666868</v>
+        <v>66.02893922666863</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>12.7259213699945</v>
+        <v>12.72592136999462</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>15.30273751513505</v>
       </c>
       <c r="M4" t="n">
-        <v>894.4740370600657</v>
+        <v>894.4740370600656</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>349.9701542558725</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>353.1536797719646</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27895,10 +27895,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>143.027717791841</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27941,13 +27941,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>132.3371525163108</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>122.0407796480756</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>96.93270672136141</v>
       </c>
       <c r="I9" t="n">
         <v>74.09389533628003</v>
@@ -27977,13 +27977,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>84.85509663750808</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>156.3804335887028</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>187.4326688177485</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>164.5292426668022</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>156.4896106304034</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>131.1312251314341</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>130.1183105077962</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9909793584588</v>
+        <v>152.6882418433237</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>151.4699620392151</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>70.85930573655934</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28065,7 +28065,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>271.0162918413558</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="C11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="D11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="E11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="F11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="G11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="H11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="I11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="T11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="U11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="V11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="W11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="X11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="C13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="D13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="E13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="F13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="G13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="H13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="I13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="J13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="K13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="L13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="M13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="N13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="O13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="P13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="R13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="S13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="T13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="U13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="V13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="W13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="X13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="C14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="D14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="E14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="F14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="G14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="H14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="I14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="T14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="U14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="V14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="W14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="X14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="C16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="D16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="E16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="F16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="G16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="H16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="I16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="J16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="K16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="L16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="M16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="N16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="O16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="P16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="Q16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="R16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="S16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="T16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="U16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="V16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="W16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="X16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.68504561991024</v>
+        <v>16.68504561991031</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="C17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="D17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="E17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="F17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="G17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="H17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="I17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="T17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="U17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="V17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="W17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="X17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="C19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="D19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="E19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="F19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="G19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="H19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="I19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="J19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="K19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="L19" t="n">
-        <v>82.71398484657877</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="M19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="N19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="O19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="P19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="R19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="S19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="T19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="U19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="V19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="W19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="X19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
     </row>
     <row r="20">
@@ -28989,7 +28989,7 @@
         <v>82.71398484657892</v>
       </c>
       <c r="M22" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657863</v>
       </c>
       <c r="N22" t="n">
         <v>82.71398484657892</v>
@@ -28998,7 +28998,7 @@
         <v>82.71398484657892</v>
       </c>
       <c r="P22" t="n">
-        <v>82.7139848465788</v>
+        <v>82.71398484657892</v>
       </c>
       <c r="Q22" t="n">
         <v>82.71398484657892</v>
@@ -29220,7 +29220,7 @@
         <v>82.71398484657892</v>
       </c>
       <c r="K25" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657874</v>
       </c>
       <c r="L25" t="n">
         <v>82.71398484657892</v>
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="C26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="D26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="E26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="F26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="G26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="H26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="I26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="T26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="U26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="V26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="W26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="X26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="Y26" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="C28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="D28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="E28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="F28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="G28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="H28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="I28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="J28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="K28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="L28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="M28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="N28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="O28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="P28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="R28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="S28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="T28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="U28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="V28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="W28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="X28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666324</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="C29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="D29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="E29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="F29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="G29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="H29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="I29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="T29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="U29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="V29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="W29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="X29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="Y29" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="C31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="D31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="E31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="F31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="G31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="H31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="I31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="J31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="K31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="L31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="M31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="N31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="O31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="P31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="R31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="S31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="T31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="U31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="V31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="W31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="X31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
       <c r="Y31" t="n">
-        <v>78.75486059666318</v>
+        <v>78.75486059666322</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="C32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="D32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="E32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="F32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="G32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="H32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="I32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="T32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="U32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="V32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="W32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="X32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="Y32" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="C34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="D34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="E34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="F34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="G34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="H34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="I34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="J34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="K34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="L34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="M34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="N34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="O34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="P34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="Q34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="R34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="S34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="T34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="U34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="V34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="W34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="X34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
       <c r="Y34" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657894</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="C35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="D35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="E35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="F35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="G35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="H35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="I35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="T35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="U35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="V35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="W35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="X35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="Y35" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="C37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="D37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="E37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="F37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="G37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="H37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="I37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="J37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="K37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="L37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="M37" t="n">
-        <v>82.71398484657863</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="N37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="O37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="P37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="Q37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="R37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="S37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="T37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="U37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="V37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="W37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="X37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="Y37" t="n">
-        <v>82.71398484657892</v>
+        <v>82.71398484657891</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="C38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="D38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="E38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="F38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="G38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="H38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="I38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="T38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="U38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="V38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="W38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="X38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="Y38" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="C40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="D40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="E40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="F40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="G40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="H40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="I40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="J40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="K40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="L40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="M40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="N40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="O40" t="n">
-        <v>82.71398484657718</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="P40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657902</v>
       </c>
       <c r="Q40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="R40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="S40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="T40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="U40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="V40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="W40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="X40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
       <c r="Y40" t="n">
-        <v>82.713984846579</v>
+        <v>82.71398484657891</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="C41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="D41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="E41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="F41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="G41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="H41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="I41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="T41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="U41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="V41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="W41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="X41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="Y41" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="C43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="D43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="E43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="F43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="G43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="H43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="I43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="J43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="K43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="L43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="M43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="N43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="O43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="P43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="Q43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="R43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="S43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="T43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="U43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="V43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="W43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="X43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
       <c r="Y43" t="n">
-        <v>82.71398484657894</v>
+        <v>82.71398484657895</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="C44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="D44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="E44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="F44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="G44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="H44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="I44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="T44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="U44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="V44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="W44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="X44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Y44" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="C46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="D46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="E46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="F46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="G46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="H46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="I46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="J46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="K46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="L46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="M46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="N46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="O46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="P46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Q46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="R46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="S46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="T46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="U46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="V46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="W46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="X46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
       <c r="Y46" t="n">
-        <v>82.71398484657891</v>
+        <v>82.71398484657897</v>
       </c>
     </row>
   </sheetData>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>14.68444509028111</v>
+      </c>
+      <c r="N8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="L8" t="n">
+      <c r="O8" t="n">
         <v>15.30273751513505</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>15.30273751513505</v>
-      </c>
-      <c r="N8" t="n">
-        <v>14.68444509028111</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="N9" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="O9" t="n">
         <v>14.68444509028111</v>
       </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>15.30273751513505</v>
-      </c>
       <c r="P9" t="n">
-        <v>15.30273751513505</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>15.30273751513505</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>95.47667206930046</v>
+        <v>41.27975276241327</v>
       </c>
       <c r="K11" t="n">
         <v>437.2640898213083</v>
@@ -35428,7 +35428,7 @@
         <v>467.2511708205386</v>
       </c>
       <c r="Q11" t="n">
-        <v>60.56940193636652</v>
+        <v>114.7663212432534</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>131.6690470719004</v>
+        <v>5.578011731491586</v>
       </c>
       <c r="K12" t="n">
         <v>352.9432149132483</v>
@@ -35495,19 +35495,19 @@
         <v>536.6003510628276</v>
       </c>
       <c r="M12" t="n">
-        <v>445.4838831064703</v>
+        <v>226.9102812023825</v>
       </c>
       <c r="N12" t="n">
-        <v>233.1778061085978</v>
+        <v>712.5201804521513</v>
       </c>
       <c r="O12" t="n">
-        <v>190.8679000328264</v>
+        <v>584.7302193095559</v>
       </c>
       <c r="P12" t="n">
-        <v>452.1227358869046</v>
+        <v>133.6599672469675</v>
       </c>
       <c r="Q12" t="n">
-        <v>249.0020054533649</v>
+        <v>38.92471771751585</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.399181658386908</v>
+        <v>6.399181658386979</v>
       </c>
       <c r="K13" t="n">
-        <v>130.9305313512872</v>
+        <v>130.9305313512873</v>
       </c>
       <c r="L13" t="n">
-        <v>218.9672416917622</v>
+        <v>218.9672416917623</v>
       </c>
       <c r="M13" t="n">
-        <v>240.4573230527861</v>
+        <v>240.4573230527862</v>
       </c>
       <c r="N13" t="n">
         <v>240.6260299882904</v>
       </c>
       <c r="O13" t="n">
-        <v>207.3527143054896</v>
+        <v>207.3527143054897</v>
       </c>
       <c r="P13" t="n">
-        <v>156.0759101603737</v>
+        <v>156.0759101603738</v>
       </c>
       <c r="Q13" t="n">
-        <v>28.91419628683249</v>
+        <v>28.91419628683256</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M14" t="n">
-        <v>351.9115535830537</v>
+        <v>337.234341596676</v>
       </c>
       <c r="N14" t="n">
         <v>675.3354171768979</v>
@@ -35668,7 +35668,7 @@
         <v>272.8843925962712</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>14.67721198637679</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35729,16 +35729,16 @@
         <v>352.9432149132483</v>
       </c>
       <c r="L15" t="n">
-        <v>165.7600057593684</v>
+        <v>536.6003510628276</v>
       </c>
       <c r="M15" t="n">
         <v>212.9865004200086</v>
       </c>
       <c r="N15" t="n">
-        <v>442.6532148217892</v>
+        <v>233.1778061085978</v>
       </c>
       <c r="O15" t="n">
-        <v>584.7302193095559</v>
+        <v>423.3652827192882</v>
       </c>
       <c r="P15" t="n">
         <v>452.1227358869046</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>6.399181658386908</v>
+        <v>6.399181658386979</v>
       </c>
       <c r="K16" t="n">
-        <v>130.9305313512872</v>
+        <v>130.9305313512873</v>
       </c>
       <c r="L16" t="n">
-        <v>218.9672416917622</v>
+        <v>218.9672416917623</v>
       </c>
       <c r="M16" t="n">
-        <v>240.4573230527861</v>
+        <v>240.4573230527862</v>
       </c>
       <c r="N16" t="n">
         <v>240.6260299882904</v>
       </c>
       <c r="O16" t="n">
-        <v>207.3527143054896</v>
+        <v>207.3527143054897</v>
       </c>
       <c r="P16" t="n">
-        <v>156.0759101603737</v>
+        <v>156.0759101603738</v>
       </c>
       <c r="Q16" t="n">
-        <v>28.91419628683249</v>
+        <v>28.91419628683256</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35890,10 +35890,10 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M17" t="n">
-        <v>337.2343415966769</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N17" t="n">
-        <v>675.3354171768979</v>
+        <v>333.4435186654301</v>
       </c>
       <c r="O17" t="n">
         <v>592.0560055655172</v>
@@ -35966,22 +35966,22 @@
         <v>88.47797790066969</v>
       </c>
       <c r="L18" t="n">
-        <v>165.7600057593684</v>
+        <v>349.2843051077803</v>
       </c>
       <c r="M18" t="n">
         <v>678.6915641700084</v>
       </c>
       <c r="N18" t="n">
-        <v>367.5044234247767</v>
+        <v>712.5201804521513</v>
       </c>
       <c r="O18" t="n">
         <v>584.7302193095559</v>
       </c>
       <c r="P18" t="n">
-        <v>452.1227358869046</v>
+        <v>133.6599672469675</v>
       </c>
       <c r="Q18" t="n">
-        <v>249.0020054533649</v>
+        <v>38.92471771751585</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>72.42812088505559</v>
+        <v>72.42812088505561</v>
       </c>
       <c r="K19" t="n">
         <v>196.9594705779559</v>
       </c>
       <c r="L19" t="n">
-        <v>284.9961809184308</v>
+        <v>284.9961809184309</v>
       </c>
       <c r="M19" t="n">
-        <v>306.4862622794548</v>
+        <v>306.4862622794549</v>
       </c>
       <c r="N19" t="n">
         <v>306.6549692149591</v>
@@ -36060,7 +36060,7 @@
         <v>222.1048493870424</v>
       </c>
       <c r="Q19" t="n">
-        <v>94.94313551350118</v>
+        <v>94.94313551350119</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>210.376367934487</v>
+        <v>41.27975276241327</v>
       </c>
       <c r="K20" t="n">
         <v>437.2640898213083</v>
@@ -36127,7 +36127,7 @@
         <v>595.2694432441351</v>
       </c>
       <c r="M20" t="n">
-        <v>337.2343415966769</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N20" t="n">
         <v>675.3354171768979</v>
@@ -36139,10 +36139,10 @@
         <v>467.2511708205386</v>
       </c>
       <c r="Q20" t="n">
-        <v>272.8843925962712</v>
+        <v>114.7663212432538</v>
       </c>
       <c r="R20" t="n">
-        <v>14.67721198637679</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>131.6690470719004</v>
+        <v>5.578011731491586</v>
       </c>
       <c r="K21" t="n">
         <v>352.9432149132483</v>
@@ -36212,13 +36212,13 @@
         <v>233.1778061085978</v>
       </c>
       <c r="O21" t="n">
-        <v>423.3652827192882</v>
+        <v>584.7302193095559</v>
       </c>
       <c r="P21" t="n">
         <v>452.1227358869046</v>
       </c>
       <c r="Q21" t="n">
-        <v>249.0020054533649</v>
+        <v>213.7281042035058</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M22" t="n">
-        <v>306.4862622794548</v>
+        <v>306.4862622794545</v>
       </c>
       <c r="N22" t="n">
         <v>306.6549692149591</v>
@@ -36294,7 +36294,7 @@
         <v>273.3816535321583</v>
       </c>
       <c r="P22" t="n">
-        <v>222.1048493870423</v>
+        <v>222.1048493870424</v>
       </c>
       <c r="Q22" t="n">
         <v>94.94313551350118</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>80.79946008292369</v>
+        <v>80.79946008292279</v>
       </c>
       <c r="K23" t="n">
         <v>437.2640898213083</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>131.6690470719004</v>
+        <v>5.578011731491586</v>
       </c>
       <c r="K24" t="n">
-        <v>352.9432149132483</v>
+        <v>88.47797790066969</v>
       </c>
       <c r="L24" t="n">
         <v>536.6003510628276</v>
       </c>
       <c r="M24" t="n">
-        <v>212.9865004200086</v>
+        <v>678.6915641700084</v>
       </c>
       <c r="N24" t="n">
         <v>233.1778061085978</v>
       </c>
       <c r="O24" t="n">
-        <v>423.3652827192882</v>
+        <v>584.7302193095559</v>
       </c>
       <c r="P24" t="n">
-        <v>452.1227358869046</v>
+        <v>425.6862956354734</v>
       </c>
       <c r="Q24" t="n">
-        <v>249.0020054533649</v>
+        <v>38.92471771751585</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>72.42812088505559</v>
       </c>
       <c r="K25" t="n">
-        <v>196.9594705779559</v>
+        <v>196.9594705779557</v>
       </c>
       <c r="L25" t="n">
         <v>284.9961809184309</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>210.376367934487</v>
+        <v>41.27975276241327</v>
       </c>
       <c r="K26" t="n">
         <v>437.2640898213083</v>
@@ -36610,10 +36610,10 @@
         <v>592.0560055655172</v>
       </c>
       <c r="P26" t="n">
-        <v>200.6291419311333</v>
+        <v>467.2511708205386</v>
       </c>
       <c r="Q26" t="n">
-        <v>272.8843925962712</v>
+        <v>175.3589788789392</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36680,13 +36680,13 @@
         <v>536.6003510628276</v>
       </c>
       <c r="M27" t="n">
-        <v>212.9865004200086</v>
+        <v>445.4838831064703</v>
       </c>
       <c r="N27" t="n">
         <v>233.1778061085978</v>
       </c>
       <c r="O27" t="n">
-        <v>423.3652827192882</v>
+        <v>190.8679000328264</v>
       </c>
       <c r="P27" t="n">
         <v>452.1227358869046</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>68.46899663513985</v>
+        <v>68.4689966351399</v>
       </c>
       <c r="K28" t="n">
-        <v>193.0003463280401</v>
+        <v>193.0003463280402</v>
       </c>
       <c r="L28" t="n">
         <v>281.0370566685152</v>
       </c>
       <c r="M28" t="n">
-        <v>302.5271380295391</v>
+        <v>302.5271380295392</v>
       </c>
       <c r="N28" t="n">
-        <v>302.6958449650433</v>
+        <v>302.6958449650434</v>
       </c>
       <c r="O28" t="n">
-        <v>269.4225292822425</v>
+        <v>269.4225292822426</v>
       </c>
       <c r="P28" t="n">
-        <v>218.1457251371266</v>
+        <v>218.1457251371267</v>
       </c>
       <c r="Q28" t="n">
-        <v>90.98401126358543</v>
+        <v>90.98401126358549</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,10 +36835,10 @@
         <v>437.2640898213083</v>
       </c>
       <c r="L29" t="n">
-        <v>595.2694432441351</v>
+        <v>313.9702023683527</v>
       </c>
       <c r="M29" t="n">
-        <v>397.8269992323623</v>
+        <v>679.1262401081447</v>
       </c>
       <c r="N29" t="n">
         <v>675.3354171768979</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>131.6690470719004</v>
+        <v>5.578011731491586</v>
       </c>
       <c r="K30" t="n">
-        <v>352.9432149132483</v>
+        <v>88.47797790066969</v>
       </c>
       <c r="L30" t="n">
         <v>536.6003510628276</v>
       </c>
       <c r="M30" t="n">
-        <v>445.4838831064703</v>
+        <v>678.6915641700084</v>
       </c>
       <c r="N30" t="n">
         <v>233.1778061085978</v>
       </c>
       <c r="O30" t="n">
-        <v>190.8679000328264</v>
+        <v>558.2937790581249</v>
       </c>
       <c r="P30" t="n">
         <v>452.1227358869046</v>
       </c>
       <c r="Q30" t="n">
-        <v>249.0020054533649</v>
+        <v>38.92471771751585</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>68.46899663513985</v>
+        <v>68.46899663513989</v>
       </c>
       <c r="K31" t="n">
-        <v>193.0003463280401</v>
+        <v>193.0003463280402</v>
       </c>
       <c r="L31" t="n">
         <v>281.0370566685152</v>
@@ -36999,16 +36999,16 @@
         <v>302.5271380295391</v>
       </c>
       <c r="N31" t="n">
-        <v>302.6958449650433</v>
+        <v>302.6958449650434</v>
       </c>
       <c r="O31" t="n">
-        <v>269.4225292822425</v>
+        <v>269.4225292822426</v>
       </c>
       <c r="P31" t="n">
-        <v>218.1457251371266</v>
+        <v>218.1457251371267</v>
       </c>
       <c r="Q31" t="n">
-        <v>90.98401126358543</v>
+        <v>90.98401126358547</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>210.376367934487</v>
+        <v>41.27975276241327</v>
       </c>
       <c r="K32" t="n">
         <v>437.2640898213083</v>
@@ -37084,10 +37084,10 @@
         <v>592.0560055655172</v>
       </c>
       <c r="P32" t="n">
-        <v>145.452462649056</v>
+        <v>467.2511708205386</v>
       </c>
       <c r="Q32" t="n">
-        <v>267.4684142426623</v>
+        <v>114.7663212432524</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>131.6690470719004</v>
+        <v>5.578011731491586</v>
       </c>
       <c r="K33" t="n">
-        <v>352.9432149132483</v>
+        <v>88.47797790066969</v>
       </c>
       <c r="L33" t="n">
         <v>536.6003510628276</v>
       </c>
       <c r="M33" t="n">
-        <v>445.4838831064703</v>
+        <v>678.6915641700084</v>
       </c>
       <c r="N33" t="n">
         <v>233.1778061085978</v>
       </c>
       <c r="O33" t="n">
-        <v>190.8679000328264</v>
+        <v>558.2937790581249</v>
       </c>
       <c r="P33" t="n">
         <v>452.1227358869046</v>
       </c>
       <c r="Q33" t="n">
-        <v>249.0020054533649</v>
+        <v>38.92471771751585</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>72.42812088505559</v>
+        <v>72.42812088505561</v>
       </c>
       <c r="K34" t="n">
         <v>196.9594705779559</v>
@@ -37233,7 +37233,7 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M34" t="n">
-        <v>306.4862622794548</v>
+        <v>306.4862622794549</v>
       </c>
       <c r="N34" t="n">
         <v>306.6549692149591</v>
@@ -37245,7 +37245,7 @@
         <v>222.1048493870424</v>
       </c>
       <c r="Q34" t="n">
-        <v>94.94313551350118</v>
+        <v>94.94313551350119</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>95.47667206930046</v>
+        <v>41.27975276241327</v>
       </c>
       <c r="K35" t="n">
         <v>437.2640898213083</v>
@@ -37315,7 +37315,7 @@
         <v>679.1262401081447</v>
       </c>
       <c r="N35" t="n">
-        <v>675.3354171768979</v>
+        <v>517.217345823879</v>
       </c>
       <c r="O35" t="n">
         <v>592.0560055655172</v>
@@ -37324,7 +37324,7 @@
         <v>467.2511708205386</v>
       </c>
       <c r="Q35" t="n">
-        <v>60.56940193636652</v>
+        <v>272.8843925962712</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,22 +37382,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>131.6690470719004</v>
+        <v>5.578011731491586</v>
       </c>
       <c r="K36" t="n">
         <v>352.9432149132483</v>
       </c>
       <c r="L36" t="n">
-        <v>536.6003510628276</v>
+        <v>165.7600057593684</v>
       </c>
       <c r="M36" t="n">
-        <v>445.4838831064703</v>
+        <v>678.6915641700084</v>
       </c>
       <c r="N36" t="n">
         <v>233.1778061085978</v>
       </c>
       <c r="O36" t="n">
-        <v>190.8679000328264</v>
+        <v>454.5915996131562</v>
       </c>
       <c r="P36" t="n">
         <v>452.1227358869046</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>72.42812088505559</v>
+        <v>72.42812088505558</v>
       </c>
       <c r="K37" t="n">
         <v>196.9594705779559</v>
@@ -37470,19 +37470,19 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M37" t="n">
-        <v>306.4862622794545</v>
+        <v>306.4862622794548</v>
       </c>
       <c r="N37" t="n">
-        <v>306.6549692149591</v>
+        <v>306.654969214959</v>
       </c>
       <c r="O37" t="n">
-        <v>273.3816535321583</v>
+        <v>273.3816535321582</v>
       </c>
       <c r="P37" t="n">
         <v>222.1048493870424</v>
       </c>
       <c r="Q37" t="n">
-        <v>94.94313551350118</v>
+        <v>94.94313551350116</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,13 +37540,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>41.27975276241327</v>
+        <v>210.376367934487</v>
       </c>
       <c r="K38" t="n">
         <v>437.2640898213083</v>
       </c>
       <c r="L38" t="n">
-        <v>437.151371891117</v>
+        <v>595.2694432441351</v>
       </c>
       <c r="M38" t="n">
         <v>679.1262401081447</v>
@@ -37558,13 +37558,13 @@
         <v>592.0560055655172</v>
       </c>
       <c r="P38" t="n">
-        <v>467.2511708205386</v>
+        <v>337.6742629689746</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.8843925962712</v>
+        <v>60.56940193636652</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>14.67721198637679</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>72.42812088505566</v>
+        <v>72.42812088505558</v>
       </c>
       <c r="K40" t="n">
-        <v>196.959470577956</v>
+        <v>196.9594705779559</v>
       </c>
       <c r="L40" t="n">
-        <v>284.996180918431</v>
+        <v>284.9961809184309</v>
       </c>
       <c r="M40" t="n">
-        <v>306.4862622794549</v>
+        <v>306.4862622794548</v>
       </c>
       <c r="N40" t="n">
-        <v>306.6549692149591</v>
+        <v>306.654969214959</v>
       </c>
       <c r="O40" t="n">
-        <v>273.3816535321565</v>
+        <v>273.3816535321582</v>
       </c>
       <c r="P40" t="n">
         <v>222.1048493870425</v>
       </c>
       <c r="Q40" t="n">
-        <v>94.94313551350125</v>
+        <v>94.94313551350116</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>80.79946008292279</v>
+        <v>210.376367934487</v>
       </c>
       <c r="K41" t="n">
-        <v>437.2640898213083</v>
+        <v>113.1186772501436</v>
       </c>
       <c r="L41" t="n">
         <v>595.2694432441351</v>
@@ -37795,13 +37795,13 @@
         <v>592.0560055655172</v>
       </c>
       <c r="P41" t="n">
-        <v>467.2511708205386</v>
+        <v>464.1818968666117</v>
       </c>
       <c r="Q41" t="n">
-        <v>60.56940193636652</v>
+        <v>272.8843925962712</v>
       </c>
       <c r="R41" t="n">
-        <v>14.67721198637679</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>72.42812088505561</v>
+        <v>72.42812088505562</v>
       </c>
       <c r="K43" t="n">
         <v>196.9594705779559</v>
@@ -37956,7 +37956,7 @@
         <v>222.1048493870424</v>
       </c>
       <c r="Q43" t="n">
-        <v>94.94313551350119</v>
+        <v>94.9431355135012</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>131.6690470719004</v>
       </c>
       <c r="K45" t="n">
-        <v>293.1535370187354</v>
+        <v>352.9432149132483</v>
       </c>
       <c r="L45" t="n">
-        <v>165.7600057593684</v>
+        <v>536.6003510628276</v>
       </c>
       <c r="M45" t="n">
         <v>212.9865004200086</v>
       </c>
       <c r="N45" t="n">
-        <v>712.5201804521513</v>
+        <v>233.1778061085978</v>
       </c>
       <c r="O45" t="n">
-        <v>584.7302193095559</v>
+        <v>423.3652827192882</v>
       </c>
       <c r="P45" t="n">
         <v>452.1227358869046</v>
       </c>
       <c r="Q45" t="n">
-        <v>38.92471771751585</v>
+        <v>249.0020054533649</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>72.42812088505558</v>
+        <v>72.42812088505563</v>
       </c>
       <c r="K46" t="n">
         <v>196.9594705779559</v>
@@ -38181,19 +38181,19 @@
         <v>284.9961809184309</v>
       </c>
       <c r="M46" t="n">
-        <v>306.4862622794548</v>
+        <v>306.4862622794549</v>
       </c>
       <c r="N46" t="n">
-        <v>306.654969214959</v>
+        <v>306.6549692149591</v>
       </c>
       <c r="O46" t="n">
-        <v>273.3816535321582</v>
+        <v>273.3816535321583</v>
       </c>
       <c r="P46" t="n">
         <v>222.1048493870424</v>
       </c>
       <c r="Q46" t="n">
-        <v>94.94313551350116</v>
+        <v>94.94313551350122</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
